--- a/ql-async/config_tlm_2.xlsx
+++ b/ql-async/config_tlm_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/ql-async/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B004C8-8C13-D740-B9B7-7D916AC19A3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C985BAA-6B19-F945-8EA0-16F6110EEB5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="460" windowWidth="29280" windowHeight="19140" activeTab="1" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
+    <workbookView xWindow="3740" yWindow="760" windowWidth="29280" windowHeight="19140" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
   </bookViews>
   <sheets>
     <sheet name="smt" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="156">
   <si>
     <t>No.</t>
   </si>
@@ -351,9 +351,6 @@
     <t>°C</t>
   </si>
   <si>
-    <t>normal item</t>
-  </si>
-  <si>
     <t>bit</t>
   </si>
   <si>
@@ -499,6 +496,12 @@
   </si>
   <si>
     <t>SMT loop counter</t>
+  </si>
+  <si>
+    <t>ordinary item</t>
+  </si>
+  <si>
+    <t>rel</t>
   </si>
 </sst>
 </file>
@@ -863,11 +866,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE05D0F0-18B2-A045-A8BA-808A6B30C776}">
   <dimension ref="A1:T112"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -892,40 +895,40 @@
         <v>81</v>
       </c>
       <c r="G1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" t="s">
         <v>114</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>115</v>
-      </c>
-      <c r="I1" t="s">
-        <v>116</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
       </c>
       <c r="K1" t="s">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="L1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P1" t="s">
         <v>111</v>
       </c>
-      <c r="P1" t="s">
-        <v>112</v>
-      </c>
       <c r="Q1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="S1" t="s">
         <v>82</v>
@@ -981,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S2" t="s">
         <v>55</v>
@@ -1037,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S3" t="s">
         <v>56</v>
@@ -1074,6 +1077,9 @@
       <c r="I4">
         <v>-1</v>
       </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
       <c r="K4" t="b">
         <v>1</v>
       </c>
@@ -1093,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S4" t="s">
         <v>94</v>
@@ -1152,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S5" t="s">
         <v>83</v>
@@ -1211,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S6" t="s">
         <v>84</v>
@@ -1270,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S7" t="s">
         <v>90</v>
@@ -1329,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S8" t="s">
         <v>91</v>
@@ -1388,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S9" t="s">
         <v>92</v>
@@ -1447,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S10" t="s">
         <v>95</v>
@@ -1506,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S11" t="s">
         <v>96</v>
@@ -1565,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S12" t="s">
         <v>97</v>
@@ -1624,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S13" t="s">
         <v>98</v>
@@ -1683,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S14" t="s">
         <v>99</v>
@@ -1724,13 +1730,13 @@
         <v>73</v>
       </c>
       <c r="K15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
         <v>-2</v>
@@ -1742,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S15" t="s">
         <v>101</v>
@@ -1783,13 +1789,13 @@
         <v>74</v>
       </c>
       <c r="K16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
         <v>-2</v>
@@ -1801,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S16" t="s">
         <v>102</v>
@@ -1848,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17">
         <v>-2</v>
@@ -1857,10 +1863,10 @@
         <v>1000000</v>
       </c>
       <c r="P17" s="2">
-        <v>-273.14999999999998</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S17" t="s">
         <v>103</v>
@@ -1907,7 +1913,7 @@
         <v>1</v>
       </c>
       <c r="M18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18">
         <v>-2</v>
@@ -1916,10 +1922,10 @@
         <v>1000000</v>
       </c>
       <c r="P18" s="2">
-        <v>-273.14999999999998</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T18" t="s">
         <v>104</v>
@@ -1963,7 +1969,7 @@
         <v>1</v>
       </c>
       <c r="M19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19">
         <v>-2</v>
@@ -1972,10 +1978,10 @@
         <v>1000000</v>
       </c>
       <c r="P19" s="2">
-        <v>-273.14999999999998</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T19" t="s">
         <v>104</v>
@@ -2019,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="M20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20">
         <v>-2</v>
@@ -2028,10 +2034,10 @@
         <v>1000000</v>
       </c>
       <c r="P20" s="2">
-        <v>-273.14999999999998</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T20" t="s">
         <v>104</v>
@@ -2075,7 +2081,7 @@
         <v>1</v>
       </c>
       <c r="M21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21">
         <v>-2</v>
@@ -2084,10 +2090,10 @@
         <v>1000000</v>
       </c>
       <c r="P21" s="2">
-        <v>-273.14999999999998</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T21" t="s">
         <v>104</v>
@@ -2131,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="M22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22">
         <v>-2</v>
@@ -2140,10 +2146,10 @@
         <v>1000000</v>
       </c>
       <c r="P22" s="2">
-        <v>-273.14999999999998</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T22" t="s">
         <v>104</v>
@@ -2187,7 +2193,7 @@
         <v>1</v>
       </c>
       <c r="M23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23">
         <v>-2</v>
@@ -2196,10 +2202,10 @@
         <v>1000000</v>
       </c>
       <c r="P23" s="2">
-        <v>-273.14999999999998</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T23" t="s">
         <v>104</v>
@@ -2243,7 +2249,7 @@
         <v>1</v>
       </c>
       <c r="M24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24">
         <v>-2</v>
@@ -2252,10 +2258,10 @@
         <v>1000000</v>
       </c>
       <c r="P24" s="2">
-        <v>-273.14999999999998</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T24" t="s">
         <v>104</v>
@@ -2299,7 +2305,7 @@
         <v>1</v>
       </c>
       <c r="M25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25">
         <v>-2</v>
@@ -2308,10 +2314,10 @@
         <v>1000000</v>
       </c>
       <c r="P25" s="2">
-        <v>-273.14999999999998</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T25" t="s">
         <v>104</v>
@@ -2355,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="M26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26">
         <v>-2</v>
@@ -2364,10 +2370,10 @@
         <v>1000000</v>
       </c>
       <c r="P26" s="2">
-        <v>-273.14999999999998</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T26" t="s">
         <v>104</v>
@@ -2423,10 +2429,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
@@ -2479,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
@@ -2535,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
@@ -2591,10 +2597,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
@@ -2647,10 +2653,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
@@ -2703,10 +2709,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
@@ -2759,10 +2765,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
@@ -2815,10 +2821,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
@@ -2871,10 +2877,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
@@ -2927,10 +2933,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
@@ -2983,10 +2989,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
@@ -3039,10 +3045,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
@@ -3074,7 +3080,7 @@
         <v>-1</v>
       </c>
       <c r="J39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K39" t="b">
         <v>1</v>
@@ -3095,10 +3101,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
@@ -3106,7 +3112,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -3151,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T40" t="s">
         <v>88</v>
@@ -3207,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T41" t="s">
         <v>51</v>
@@ -3263,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T42" t="s">
         <v>51</v>
@@ -3319,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T43" t="s">
         <v>51</v>
@@ -3330,7 +3336,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -3354,7 +3360,7 @@
         <v>-1</v>
       </c>
       <c r="J44" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="K44" t="b">
         <v>0</v>
@@ -3372,10 +3378,10 @@
         <v>1</v>
       </c>
       <c r="P44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T44" t="s">
         <v>88</v>
@@ -3386,7 +3392,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -3410,7 +3416,7 @@
         <v>-1</v>
       </c>
       <c r="J45" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="K45" t="b">
         <v>0</v>
@@ -3428,10 +3434,10 @@
         <v>2</v>
       </c>
       <c r="P45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T45" t="s">
         <v>88</v>
@@ -3442,7 +3448,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -3466,7 +3472,7 @@
         <v>-1</v>
       </c>
       <c r="J46" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
@@ -3484,10 +3490,10 @@
         <v>4</v>
       </c>
       <c r="P46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T46" t="s">
         <v>88</v>
@@ -3498,7 +3504,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -3522,7 +3528,7 @@
         <v>-1</v>
       </c>
       <c r="J47" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
@@ -3540,10 +3546,10 @@
         <v>8</v>
       </c>
       <c r="P47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T47" t="s">
         <v>88</v>
@@ -3554,7 +3560,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -3578,7 +3584,7 @@
         <v>-1</v>
       </c>
       <c r="J48" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
@@ -3596,10 +3602,10 @@
         <v>16</v>
       </c>
       <c r="P48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T48" t="s">
         <v>88</v>
@@ -3610,7 +3616,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -3634,7 +3640,7 @@
         <v>-1</v>
       </c>
       <c r="J49" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
@@ -3652,10 +3658,10 @@
         <v>32</v>
       </c>
       <c r="P49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T49" t="s">
         <v>88</v>
@@ -3666,7 +3672,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -3690,7 +3696,7 @@
         <v>-1</v>
       </c>
       <c r="J50" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
@@ -3708,10 +3714,10 @@
         <v>64</v>
       </c>
       <c r="P50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T50" t="s">
         <v>88</v>
@@ -3722,7 +3728,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -3746,7 +3752,7 @@
         <v>-1</v>
       </c>
       <c r="J51" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
@@ -3764,10 +3770,10 @@
         <v>128</v>
       </c>
       <c r="P51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T51" t="s">
         <v>88</v>
@@ -3778,7 +3784,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -3802,7 +3808,7 @@
         <v>-1</v>
       </c>
       <c r="J52" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
@@ -3823,7 +3829,7 @@
         <v>0</v>
       </c>
       <c r="Q52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T52" t="s">
         <v>88</v>
@@ -3834,7 +3840,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -3858,7 +3864,7 @@
         <v>-1</v>
       </c>
       <c r="J53" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
@@ -3879,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T53" t="s">
         <v>88</v>
@@ -3890,7 +3896,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -3914,7 +3920,7 @@
         <v>-1</v>
       </c>
       <c r="J54" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
@@ -3935,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T54" t="s">
         <v>88</v>
@@ -3946,7 +3952,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -3970,7 +3976,7 @@
         <v>-1</v>
       </c>
       <c r="J55" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
@@ -3991,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T55" t="s">
         <v>88</v>
@@ -4002,7 +4008,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4026,7 +4032,7 @@
         <v>-1</v>
       </c>
       <c r="J56" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
@@ -4047,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T56" t="s">
         <v>88</v>
@@ -4058,7 +4064,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4082,7 +4088,7 @@
         <v>-1</v>
       </c>
       <c r="J57" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
@@ -4103,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T57" t="s">
         <v>88</v>
@@ -4114,7 +4120,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -4138,7 +4144,7 @@
         <v>-1</v>
       </c>
       <c r="J58" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
@@ -4159,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T58" t="s">
         <v>88</v>
@@ -4194,7 +4200,7 @@
         <v>-1</v>
       </c>
       <c r="J59" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
@@ -4215,7 +4221,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T59" t="s">
         <v>88</v>
@@ -4250,7 +4256,7 @@
         <v>-1</v>
       </c>
       <c r="J60" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
@@ -4271,7 +4277,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T60" t="s">
         <v>88</v>
@@ -4306,7 +4312,7 @@
         <v>-1</v>
       </c>
       <c r="J61" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
@@ -4327,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T61" t="s">
         <v>88</v>
@@ -4338,7 +4344,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -4383,10 +4389,10 @@
         <v>0</v>
       </c>
       <c r="Q62" t="s">
+        <v>121</v>
+      </c>
+      <c r="S62" t="s">
         <v>122</v>
-      </c>
-      <c r="S62" t="s">
-        <v>123</v>
       </c>
       <c r="T62" t="s">
         <v>88</v>
@@ -4442,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T63" t="s">
         <v>104</v>
@@ -4498,10 +4504,10 @@
         <v>0</v>
       </c>
       <c r="Q64" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T64" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
@@ -4509,7 +4515,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -4554,10 +4560,10 @@
         <v>0</v>
       </c>
       <c r="Q65" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
@@ -4610,10 +4616,10 @@
         <v>0</v>
       </c>
       <c r="Q66" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T66" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
@@ -4666,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="Q67" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T67" t="s">
         <v>88</v>
@@ -4830,11 +4836,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7831BB-F7C3-7546-89C2-6E8E0330469B}">
   <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N5" sqref="N5"/>
+      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4859,40 +4865,40 @@
         <v>81</v>
       </c>
       <c r="G1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" t="s">
         <v>114</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>115</v>
-      </c>
-      <c r="I1" t="s">
-        <v>116</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
       </c>
       <c r="K1" t="s">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="L1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P1" t="s">
         <v>111</v>
       </c>
-      <c r="P1" t="s">
-        <v>112</v>
-      </c>
       <c r="Q1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="S1" t="s">
         <v>82</v>
@@ -5000,7 +5006,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -5027,7 +5033,7 @@
         <v>65</v>
       </c>
       <c r="K4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -5077,7 +5083,7 @@
         <v>57</v>
       </c>
       <c r="K5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -5130,7 +5136,7 @@
         <v>57</v>
       </c>
       <c r="K6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -5456,7 +5462,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -5501,7 +5507,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
@@ -5509,7 +5515,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -5559,7 +5565,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -5609,7 +5615,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C16">
         <v>1</v>

--- a/ql-async/config_tlm_2.xlsx
+++ b/ql-async/config_tlm_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/ql-async/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C985BAA-6B19-F945-8EA0-16F6110EEB5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62E2EB8-F177-1C4B-9755-C4CE933D0F3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3740" yWindow="760" windowWidth="29280" windowHeight="19140" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
+    <workbookView xWindow="2460" yWindow="700" windowWidth="29280" windowHeight="19140" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
   </bookViews>
   <sheets>
     <sheet name="smt" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="166">
   <si>
     <t>No.</t>
   </si>
@@ -243,9 +243,6 @@
     <t>DES time</t>
   </si>
   <si>
-    <t>Chassis temperature</t>
-  </si>
-  <si>
     <t>CPU load</t>
   </si>
   <si>
@@ -309,12 +306,6 @@
     <t>Nitrogen tank pressure</t>
   </si>
   <si>
-    <t>Regurated fueld pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regurated oxididizer pressure </t>
-  </si>
-  <si>
     <t>SMT frm count</t>
   </si>
   <si>
@@ -399,9 +390,6 @@
     <t>group</t>
   </si>
   <si>
-    <t>DES state</t>
-  </si>
-  <si>
     <t>Sequence state</t>
   </si>
   <si>
@@ -480,9 +468,6 @@
     <t>sec</t>
   </si>
   <si>
-    <t>PCM frame counter</t>
-  </si>
-  <si>
     <t>PCB header</t>
   </si>
   <si>
@@ -502,6 +487,51 @@
   </si>
   <si>
     <t>rel</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Regurated fuel pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regurated oxidizer pressure </t>
+  </si>
+  <si>
+    <t>Oxidizer tank temperature</t>
+  </si>
+  <si>
+    <t>Nitorgen tank pressure</t>
+  </si>
+  <si>
+    <t>PCM frm counter</t>
+  </si>
+  <si>
+    <t>y_min</t>
+  </si>
+  <si>
+    <t>y_max</t>
+  </si>
+  <si>
+    <t>alert_lim_l</t>
+  </si>
+  <si>
+    <t>alert_lim_u</t>
+  </si>
+  <si>
+    <t>plot #</t>
+  </si>
+  <si>
+    <t>High Speed</t>
+  </si>
+  <si>
+    <t>DES State</t>
+  </si>
+  <si>
+    <t>Tchassis</t>
   </si>
 </sst>
 </file>
@@ -864,18 +894,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE05D0F0-18B2-A045-A8BA-808A6B30C776}">
-  <dimension ref="A1:T112"/>
+  <dimension ref="A1:Y112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="22" max="22" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -892,52 +925,67 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
       </c>
       <c r="K1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="O1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q1" t="s">
+        <v>117</v>
+      </c>
+      <c r="R1" t="s">
         <v>120</v>
       </c>
-      <c r="R1" t="s">
-        <v>124</v>
-      </c>
       <c r="S1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="U1" t="s">
+        <v>162</v>
+      </c>
+      <c r="V1" t="s">
+        <v>158</v>
+      </c>
+      <c r="W1" t="s">
+        <v>159</v>
+      </c>
+      <c r="X1" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -984,16 +1032,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>119</v>
+        <v>152</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>55</v>
+        <v>151</v>
       </c>
       <c r="T2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1040,21 +1091,24 @@
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>119</v>
+        <v>152</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="T3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1099,16 +1153,34 @@
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>119</v>
+        <v>152</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
       </c>
       <c r="S4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="T4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>100000</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1158,16 +1230,34 @@
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>117</v>
+        <v>114</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="W5">
+        <v>15.2</v>
+      </c>
+      <c r="X5">
+        <v>0.3</v>
+      </c>
+      <c r="Y5">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1217,16 +1307,31 @@
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>117</v>
+        <v>114</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
       </c>
       <c r="S6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="V6" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="W6">
+        <v>15.2</v>
+      </c>
+      <c r="X6">
+        <v>0.3</v>
+      </c>
+      <c r="Y6">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1276,16 +1381,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>117</v>
+        <v>114</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
       </c>
       <c r="S7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="V7" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="W7">
+        <v>15.2</v>
+      </c>
+      <c r="X7">
+        <v>0.3</v>
+      </c>
+      <c r="Y7">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1335,16 +1455,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>117</v>
+        <v>114</v>
+      </c>
+      <c r="R8">
+        <v>3</v>
       </c>
       <c r="S8" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="T8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="V8" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="W8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1394,16 +1529,31 @@
         <v>0</v>
       </c>
       <c r="Q9" t="s">
-        <v>117</v>
+        <v>114</v>
+      </c>
+      <c r="R9">
+        <v>4</v>
       </c>
       <c r="S9" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="T9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="V9" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="W9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1453,16 +1603,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>117</v>
+        <v>114</v>
+      </c>
+      <c r="R10">
+        <v>5</v>
       </c>
       <c r="S10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="T10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="V10" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="W10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1512,16 +1677,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>117</v>
+        <v>114</v>
+      </c>
+      <c r="R11">
+        <v>6</v>
       </c>
       <c r="S11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="T11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="V11" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="W11">
+        <v>1.6</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1571,16 +1751,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="s">
-        <v>117</v>
+        <v>114</v>
+      </c>
+      <c r="R12">
+        <v>7</v>
       </c>
       <c r="S12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="T12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="V12" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="W12">
+        <v>1.6</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1630,16 +1825,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="s">
-        <v>117</v>
+        <v>114</v>
+      </c>
+      <c r="R13">
+        <v>8</v>
       </c>
       <c r="S13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="T13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="V13" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="W13">
+        <v>1.6</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1689,16 +1899,31 @@
         <v>0</v>
       </c>
       <c r="Q14" t="s">
-        <v>117</v>
+        <v>114</v>
+      </c>
+      <c r="R14">
+        <v>10</v>
       </c>
       <c r="S14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="T14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="V14" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="W14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1727,7 +1952,7 @@
         <v>-1</v>
       </c>
       <c r="J15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
@@ -1748,16 +1973,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="s">
-        <v>118</v>
+        <v>115</v>
+      </c>
+      <c r="R15">
+        <v>10</v>
       </c>
       <c r="S15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="T15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1786,7 +2014,7 @@
         <v>-1</v>
       </c>
       <c r="J16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
@@ -1807,16 +2035,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="s">
-        <v>118</v>
+        <v>115</v>
+      </c>
+      <c r="R16">
+        <v>11</v>
       </c>
       <c r="S16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1866,16 +2097,34 @@
         <v>0</v>
       </c>
       <c r="Q17" t="s">
-        <v>118</v>
+        <v>115</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="U17">
+        <v>3</v>
+      </c>
+      <c r="V17" s="2">
+        <v>-5</v>
+      </c>
+      <c r="W17">
+        <v>45</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1925,13 +2174,31 @@
         <v>0</v>
       </c>
       <c r="Q18" t="s">
-        <v>118</v>
+        <v>115</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18" t="s">
+        <v>155</v>
       </c>
       <c r="T18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="V18" s="2">
+        <v>-5</v>
+      </c>
+      <c r="W18">
+        <v>45</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1981,13 +2248,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="s">
-        <v>118</v>
+        <v>115</v>
+      </c>
+      <c r="R19">
+        <v>2</v>
+      </c>
+      <c r="S19" t="s">
+        <v>156</v>
       </c>
       <c r="T19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="V19" s="2">
+        <v>-5</v>
+      </c>
+      <c r="W19">
+        <v>45</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2037,13 +2322,28 @@
         <v>0</v>
       </c>
       <c r="Q20" t="s">
-        <v>118</v>
+        <v>115</v>
+      </c>
+      <c r="R20">
+        <v>3</v>
       </c>
       <c r="T20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="V20" s="2">
+        <v>-5</v>
+      </c>
+      <c r="W20">
+        <v>45</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2093,13 +2393,28 @@
         <v>0</v>
       </c>
       <c r="Q21" t="s">
-        <v>118</v>
+        <v>115</v>
+      </c>
+      <c r="R21">
+        <v>4</v>
       </c>
       <c r="T21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="V21" s="2">
+        <v>-5</v>
+      </c>
+      <c r="W21">
+        <v>45</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2149,13 +2464,28 @@
         <v>0</v>
       </c>
       <c r="Q22" t="s">
-        <v>118</v>
+        <v>115</v>
+      </c>
+      <c r="R22">
+        <v>6</v>
       </c>
       <c r="T22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="V22" s="2">
+        <v>-20</v>
+      </c>
+      <c r="W22">
+        <v>220</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2205,13 +2535,28 @@
         <v>0</v>
       </c>
       <c r="Q23" t="s">
-        <v>118</v>
+        <v>115</v>
+      </c>
+      <c r="R23">
+        <v>7</v>
       </c>
       <c r="T23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="V23" s="2">
+        <v>-20</v>
+      </c>
+      <c r="W23">
+        <v>220</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2261,13 +2606,28 @@
         <v>0</v>
       </c>
       <c r="Q24" t="s">
-        <v>118</v>
+        <v>115</v>
+      </c>
+      <c r="R24">
+        <v>8</v>
       </c>
       <c r="T24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="V24" s="2">
+        <v>-5</v>
+      </c>
+      <c r="W24">
+        <v>45</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2317,13 +2677,28 @@
         <v>0</v>
       </c>
       <c r="Q25" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+      <c r="R25">
+        <v>6</v>
       </c>
       <c r="T25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="V25" s="2">
+        <v>-5</v>
+      </c>
+      <c r="W25">
+        <v>45</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2373,13 +2748,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+      <c r="R26">
+        <v>7</v>
       </c>
       <c r="T26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="V26" s="2">
+        <v>-5</v>
+      </c>
+      <c r="W26">
+        <v>45</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2429,13 +2819,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="s">
-        <v>116</v>
+        <v>113</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+      <c r="U27">
+        <v>4</v>
+      </c>
+      <c r="V27" s="2">
+        <v>-12</v>
+      </c>
+      <c r="W27">
+        <v>12</v>
+      </c>
+      <c r="X27">
+        <v>-10</v>
+      </c>
+      <c r="Y27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2485,13 +2893,28 @@
         <v>0</v>
       </c>
       <c r="Q28" t="s">
-        <v>116</v>
+        <v>113</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
       </c>
       <c r="T28" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+      <c r="V28" s="2">
+        <v>-12</v>
+      </c>
+      <c r="W28">
+        <v>12</v>
+      </c>
+      <c r="X28">
+        <v>-10</v>
+      </c>
+      <c r="Y28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2541,13 +2964,28 @@
         <v>0</v>
       </c>
       <c r="Q29" t="s">
-        <v>116</v>
+        <v>113</v>
+      </c>
+      <c r="R29">
+        <v>2</v>
       </c>
       <c r="T29" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+      <c r="V29" s="2">
+        <v>-12</v>
+      </c>
+      <c r="W29">
+        <v>12</v>
+      </c>
+      <c r="X29">
+        <v>-10</v>
+      </c>
+      <c r="Y29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2597,13 +3035,28 @@
         <v>0</v>
       </c>
       <c r="Q30" t="s">
-        <v>116</v>
+        <v>113</v>
+      </c>
+      <c r="R30">
+        <v>3</v>
       </c>
       <c r="T30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="V30" s="2">
+        <v>-1200</v>
+      </c>
+      <c r="W30">
+        <v>1200</v>
+      </c>
+      <c r="X30">
+        <v>-720</v>
+      </c>
+      <c r="Y30">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2653,13 +3106,28 @@
         <v>0</v>
       </c>
       <c r="Q31" t="s">
-        <v>116</v>
+        <v>113</v>
+      </c>
+      <c r="R31">
+        <v>4</v>
       </c>
       <c r="T31" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="V31" s="2">
+        <v>-1200</v>
+      </c>
+      <c r="W31">
+        <v>1200</v>
+      </c>
+      <c r="X31">
+        <v>-720</v>
+      </c>
+      <c r="Y31">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2709,13 +3177,28 @@
         <v>0</v>
       </c>
       <c r="Q32" t="s">
-        <v>116</v>
+        <v>113</v>
+      </c>
+      <c r="R32">
+        <v>5</v>
       </c>
       <c r="T32" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="V32" s="2">
+        <v>-1200</v>
+      </c>
+      <c r="W32">
+        <v>1200</v>
+      </c>
+      <c r="X32">
+        <v>-720</v>
+      </c>
+      <c r="Y32">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2765,13 +3248,28 @@
         <v>0</v>
       </c>
       <c r="Q33" t="s">
-        <v>116</v>
+        <v>113</v>
+      </c>
+      <c r="R33">
+        <v>6</v>
       </c>
       <c r="T33" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="V33" s="2">
+        <v>-1000000</v>
+      </c>
+      <c r="W33">
+        <v>1000000</v>
+      </c>
+      <c r="X33">
+        <v>-10000</v>
+      </c>
+      <c r="Y33">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2821,13 +3319,28 @@
         <v>0</v>
       </c>
       <c r="Q34" t="s">
-        <v>116</v>
+        <v>113</v>
+      </c>
+      <c r="R34">
+        <v>7</v>
       </c>
       <c r="T34" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="V34" s="2">
+        <v>-1000000</v>
+      </c>
+      <c r="W34">
+        <v>1000000</v>
+      </c>
+      <c r="X34">
+        <v>-10000</v>
+      </c>
+      <c r="Y34">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2877,18 +3390,33 @@
         <v>0</v>
       </c>
       <c r="Q35" t="s">
-        <v>116</v>
+        <v>113</v>
+      </c>
+      <c r="R35">
+        <v>8</v>
       </c>
       <c r="T35" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="V35" s="2">
+        <v>-1000000</v>
+      </c>
+      <c r="W35">
+        <v>1000000</v>
+      </c>
+      <c r="X35">
+        <v>-10000</v>
+      </c>
+      <c r="Y35">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2933,18 +3461,33 @@
         <v>0</v>
       </c>
       <c r="Q36" t="s">
-        <v>116</v>
+        <v>113</v>
+      </c>
+      <c r="R36">
+        <v>9</v>
       </c>
       <c r="T36" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="V36">
+        <v>-220</v>
+      </c>
+      <c r="W36">
+        <v>220</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2989,18 +3532,33 @@
         <v>0</v>
       </c>
       <c r="Q37" t="s">
-        <v>116</v>
+        <v>113</v>
+      </c>
+      <c r="R37">
+        <v>10</v>
       </c>
       <c r="T37" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="V37">
+        <v>-110</v>
+      </c>
+      <c r="W37">
+        <v>110</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -3045,13 +3603,28 @@
         <v>0</v>
       </c>
       <c r="Q38" t="s">
-        <v>116</v>
+        <v>113</v>
+      </c>
+      <c r="R38">
+        <v>11</v>
       </c>
       <c r="T38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="V38">
+        <v>-110</v>
+      </c>
+      <c r="W38">
+        <v>110</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3080,7 +3653,7 @@
         <v>-1</v>
       </c>
       <c r="J39" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K39" t="b">
         <v>1</v>
@@ -3101,18 +3674,18 @@
         <v>0</v>
       </c>
       <c r="Q39" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="T39" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -3157,18 +3730,18 @@
         <v>0</v>
       </c>
       <c r="Q40" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="T40" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -3180,7 +3753,7 @@
         <v>1</v>
       </c>
       <c r="F41">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G41">
         <v>-1</v>
@@ -3192,39 +3765,42 @@
         <v>-1</v>
       </c>
       <c r="J41" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="K41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41">
         <v>1</v>
       </c>
       <c r="M41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O41" s="2">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="P41" s="2">
         <v>0</v>
       </c>
       <c r="Q41" t="s">
-        <v>119</v>
+        <v>164</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
       </c>
       <c r="T41" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -3236,7 +3812,7 @@
         <v>1</v>
       </c>
       <c r="F42">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G42">
         <v>-1</v>
@@ -3248,39 +3824,42 @@
         <v>-1</v>
       </c>
       <c r="J42" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="K42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42">
         <v>1</v>
       </c>
       <c r="M42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O42" s="2">
-        <v>5.3</v>
+        <v>2</v>
       </c>
       <c r="P42" s="2">
         <v>0</v>
       </c>
       <c r="Q42" t="s">
-        <v>119</v>
+        <v>164</v>
+      </c>
+      <c r="R42">
+        <v>1</v>
       </c>
       <c r="T42" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -3292,7 +3871,7 @@
         <v>1</v>
       </c>
       <c r="F43">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G43">
         <v>-1</v>
@@ -3319,24 +3898,39 @@
         <v>5</v>
       </c>
       <c r="O43" s="2">
-        <v>5.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P43" s="2">
         <v>0</v>
       </c>
       <c r="Q43" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
       </c>
       <c r="T43" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V43">
+        <v>-1</v>
+      </c>
+      <c r="W43">
+        <v>31</v>
+      </c>
+      <c r="X43">
+        <v>4.5</v>
+      </c>
+      <c r="Y43">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -3348,7 +3942,7 @@
         <v>1</v>
       </c>
       <c r="F44">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="G44">
         <v>-1</v>
@@ -3360,39 +3954,54 @@
         <v>-1</v>
       </c>
       <c r="J44" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="K44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44">
         <v>1</v>
       </c>
       <c r="M44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O44" s="2">
-        <v>1</v>
+        <v>5.3</v>
       </c>
       <c r="P44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="s">
-        <v>121</v>
+        <v>116</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
       </c>
       <c r="T44" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="V44">
+        <v>-1</v>
+      </c>
+      <c r="W44">
+        <v>31</v>
+      </c>
+      <c r="X44">
+        <v>21.6</v>
+      </c>
+      <c r="Y44">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -3404,7 +4013,7 @@
         <v>1</v>
       </c>
       <c r="F45">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="G45">
         <v>-1</v>
@@ -3416,39 +4025,54 @@
         <v>-1</v>
       </c>
       <c r="J45" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="K45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45">
         <v>1</v>
       </c>
       <c r="M45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O45" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="P45" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>116</v>
+      </c>
+      <c r="R45">
         <v>2</v>
       </c>
-      <c r="P45" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>121</v>
-      </c>
       <c r="T45" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="V45">
+        <v>-1</v>
+      </c>
+      <c r="W45">
+        <v>31</v>
+      </c>
+      <c r="X45">
+        <v>21.6</v>
+      </c>
+      <c r="Y45">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -3460,7 +4084,7 @@
         <v>1</v>
       </c>
       <c r="F46">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="G46">
         <v>-1</v>
@@ -3472,7 +4096,7 @@
         <v>-1</v>
       </c>
       <c r="J46" t="s">
-        <v>155</v>
+        <v>52</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
@@ -3484,27 +4108,39 @@
         <v>0</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O46" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="s">
-        <v>121</v>
+        <v>164</v>
+      </c>
+      <c r="R46">
+        <v>3</v>
+      </c>
+      <c r="S46" t="s">
+        <v>118</v>
       </c>
       <c r="T46" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="V46">
+        <v>-1</v>
+      </c>
+      <c r="W46">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -3528,7 +4164,7 @@
         <v>-1</v>
       </c>
       <c r="J47" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
@@ -3543,24 +4179,39 @@
         <v>1</v>
       </c>
       <c r="O47" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P47" s="2">
         <v>1</v>
       </c>
       <c r="Q47" t="s">
-        <v>121</v>
+        <v>164</v>
+      </c>
+      <c r="R47">
+        <v>6</v>
       </c>
       <c r="T47" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="V47">
+        <v>-0.4</v>
+      </c>
+      <c r="W47">
+        <v>1.4</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -3584,7 +4235,7 @@
         <v>-1</v>
       </c>
       <c r="J48" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
@@ -3599,24 +4250,39 @@
         <v>1</v>
       </c>
       <c r="O48" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="P48" s="2">
         <v>1</v>
       </c>
       <c r="Q48" t="s">
-        <v>121</v>
+        <v>164</v>
+      </c>
+      <c r="R48">
+        <v>7</v>
       </c>
       <c r="T48" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="V48">
+        <v>-0.4</v>
+      </c>
+      <c r="W48">
+        <v>1.4</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -3640,7 +4306,7 @@
         <v>-1</v>
       </c>
       <c r="J49" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
@@ -3655,24 +4321,39 @@
         <v>1</v>
       </c>
       <c r="O49" s="2">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="P49" s="2">
         <v>1</v>
       </c>
       <c r="Q49" t="s">
-        <v>121</v>
+        <v>164</v>
+      </c>
+      <c r="R49">
+        <v>8</v>
       </c>
       <c r="T49" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="V49">
+        <v>-0.4</v>
+      </c>
+      <c r="W49">
+        <v>1.4</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -3696,7 +4377,7 @@
         <v>-1</v>
       </c>
       <c r="J50" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
@@ -3711,24 +4392,39 @@
         <v>1</v>
       </c>
       <c r="O50" s="2">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="P50" s="2">
         <v>1</v>
       </c>
       <c r="Q50" t="s">
-        <v>121</v>
+        <v>164</v>
+      </c>
+      <c r="R50">
+        <v>9</v>
       </c>
       <c r="T50" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="V50">
+        <v>-0.4</v>
+      </c>
+      <c r="W50">
+        <v>1.4</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -3752,7 +4448,7 @@
         <v>-1</v>
       </c>
       <c r="J51" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
@@ -3767,24 +4463,39 @@
         <v>1</v>
       </c>
       <c r="O51" s="2">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="P51" s="2">
         <v>1</v>
       </c>
       <c r="Q51" t="s">
-        <v>121</v>
+        <v>164</v>
+      </c>
+      <c r="R51">
+        <v>12</v>
       </c>
       <c r="T51" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="V51">
+        <v>-0.4</v>
+      </c>
+      <c r="W51">
+        <v>1.4</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -3808,7 +4519,7 @@
         <v>-1</v>
       </c>
       <c r="J52" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
@@ -3823,24 +4534,39 @@
         <v>1</v>
       </c>
       <c r="O52" s="2">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="P52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52" t="s">
-        <v>121</v>
+        <v>164</v>
+      </c>
+      <c r="R52">
+        <v>13</v>
       </c>
       <c r="T52" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="V52">
+        <v>-0.4</v>
+      </c>
+      <c r="W52">
+        <v>1.4</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -3864,7 +4590,7 @@
         <v>-1</v>
       </c>
       <c r="J53" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
@@ -3879,24 +4605,39 @@
         <v>1</v>
       </c>
       <c r="O53" s="2">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="P53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53" t="s">
-        <v>121</v>
+        <v>164</v>
+      </c>
+      <c r="R53">
+        <v>14</v>
       </c>
       <c r="T53" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="V53">
+        <v>-0.4</v>
+      </c>
+      <c r="W53">
+        <v>1.4</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -3920,7 +4661,7 @@
         <v>-1</v>
       </c>
       <c r="J54" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
@@ -3935,24 +4676,39 @@
         <v>1</v>
       </c>
       <c r="O54" s="2">
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="P54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54" t="s">
-        <v>121</v>
+        <v>164</v>
+      </c>
+      <c r="R54">
+        <v>15</v>
       </c>
       <c r="T54" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="V54">
+        <v>-0.4</v>
+      </c>
+      <c r="W54">
+        <v>1.4</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -3976,7 +4732,7 @@
         <v>-1</v>
       </c>
       <c r="J55" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
@@ -3991,24 +4747,39 @@
         <v>1</v>
       </c>
       <c r="O55" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P55" s="2">
         <v>0</v>
       </c>
       <c r="Q55" t="s">
-        <v>121</v>
+        <v>164</v>
+      </c>
+      <c r="R55">
+        <v>18</v>
       </c>
       <c r="T55" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="V55">
+        <v>-0.4</v>
+      </c>
+      <c r="W55">
+        <v>1.4</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4032,7 +4803,7 @@
         <v>-1</v>
       </c>
       <c r="J56" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
@@ -4047,24 +4818,39 @@
         <v>1</v>
       </c>
       <c r="O56" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="P56" s="2">
         <v>0</v>
       </c>
       <c r="Q56" t="s">
-        <v>121</v>
+        <v>164</v>
+      </c>
+      <c r="R56">
+        <v>19</v>
       </c>
       <c r="T56" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="V56">
+        <v>-0.4</v>
+      </c>
+      <c r="W56">
+        <v>1.4</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4088,7 +4874,7 @@
         <v>-1</v>
       </c>
       <c r="J57" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
@@ -4103,24 +4889,39 @@
         <v>1</v>
       </c>
       <c r="O57" s="2">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="P57" s="2">
         <v>0</v>
       </c>
       <c r="Q57" t="s">
-        <v>121</v>
+        <v>164</v>
+      </c>
+      <c r="R57">
+        <v>20</v>
       </c>
       <c r="T57" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="V57">
+        <v>-0.4</v>
+      </c>
+      <c r="W57">
+        <v>1.4</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -4144,7 +4945,7 @@
         <v>-1</v>
       </c>
       <c r="J58" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
@@ -4159,24 +4960,39 @@
         <v>1</v>
       </c>
       <c r="O58" s="2">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="P58" s="2">
         <v>0</v>
       </c>
       <c r="Q58" t="s">
-        <v>121</v>
+        <v>164</v>
+      </c>
+      <c r="R58">
+        <v>21</v>
       </c>
       <c r="T58" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="V58">
+        <v>-0.4</v>
+      </c>
+      <c r="W58">
+        <v>1.4</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -4200,7 +5016,7 @@
         <v>-1</v>
       </c>
       <c r="J59" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
@@ -4215,24 +5031,39 @@
         <v>1</v>
       </c>
       <c r="O59" s="2">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="P59" s="2">
         <v>0</v>
       </c>
       <c r="Q59" t="s">
-        <v>121</v>
+        <v>164</v>
+      </c>
+      <c r="R59">
+        <v>24</v>
       </c>
       <c r="T59" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="V59">
+        <v>-0.4</v>
+      </c>
+      <c r="W59">
+        <v>1.4</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -4244,7 +5075,7 @@
         <v>1</v>
       </c>
       <c r="F60">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G60">
         <v>-1</v>
@@ -4256,7 +5087,7 @@
         <v>-1</v>
       </c>
       <c r="J60" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
@@ -4271,24 +5102,39 @@
         <v>1</v>
       </c>
       <c r="O60" s="2">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="P60" s="2">
         <v>0</v>
       </c>
       <c r="Q60" t="s">
-        <v>121</v>
+        <v>164</v>
+      </c>
+      <c r="R60">
+        <v>25</v>
       </c>
       <c r="T60" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="V60">
+        <v>-0.4</v>
+      </c>
+      <c r="W60">
+        <v>1.4</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -4300,7 +5146,7 @@
         <v>1</v>
       </c>
       <c r="F61">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G61">
         <v>-1</v>
@@ -4312,7 +5158,7 @@
         <v>-1</v>
       </c>
       <c r="J61" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
@@ -4327,24 +5173,39 @@
         <v>1</v>
       </c>
       <c r="O61" s="2">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="P61" s="2">
         <v>0</v>
       </c>
       <c r="Q61" t="s">
-        <v>121</v>
+        <v>164</v>
+      </c>
+      <c r="R61">
+        <v>26</v>
       </c>
       <c r="T61" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="V61">
+        <v>-0.4</v>
+      </c>
+      <c r="W61">
+        <v>1.4</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -4356,7 +5217,7 @@
         <v>1</v>
       </c>
       <c r="F62">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G62">
         <v>-1</v>
@@ -4368,7 +5229,7 @@
         <v>-1</v>
       </c>
       <c r="J62" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
@@ -4380,30 +5241,42 @@
         <v>0</v>
       </c>
       <c r="N62">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O62" s="2">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="P62" s="2">
         <v>0</v>
       </c>
       <c r="Q62" t="s">
-        <v>121</v>
-      </c>
-      <c r="S62" t="s">
-        <v>122</v>
+        <v>164</v>
+      </c>
+      <c r="R62">
+        <v>27</v>
       </c>
       <c r="T62" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="V62">
+        <v>-0.4</v>
+      </c>
+      <c r="W62">
+        <v>1.4</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>165</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -4448,18 +5321,33 @@
         <v>0</v>
       </c>
       <c r="Q63" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+      <c r="R63">
+        <v>8</v>
       </c>
       <c r="T63" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="V63" s="2">
+        <v>-5</v>
+      </c>
+      <c r="W63">
+        <v>45</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
+      </c>
+      <c r="Y63">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -4504,18 +5392,33 @@
         <v>0</v>
       </c>
       <c r="Q64" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+      <c r="R64">
+        <v>12</v>
       </c>
       <c r="T64" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="V64">
+        <v>-10</v>
+      </c>
+      <c r="W64">
+        <v>110</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -4560,18 +5463,33 @@
         <v>0</v>
       </c>
       <c r="Q65" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+      <c r="R65">
+        <v>13</v>
       </c>
       <c r="T65" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="V65">
+        <v>-1</v>
+      </c>
+      <c r="W65">
+        <v>10000</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -4616,18 +5534,33 @@
         <v>0</v>
       </c>
       <c r="Q66" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+      <c r="R66">
+        <v>14</v>
       </c>
       <c r="T66" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="V66">
+        <v>-1</v>
+      </c>
+      <c r="W66">
+        <v>1000</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -4672,29 +5605,32 @@
         <v>0</v>
       </c>
       <c r="Q67" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+      <c r="R67">
+        <v>15</v>
       </c>
       <c r="T67" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
     </row>
@@ -4834,18 +5770,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7831BB-F7C3-7546-89C2-6E8E0330469B}">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4862,52 +5798,67 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
       </c>
       <c r="K1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="O1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q1" t="s">
+        <v>117</v>
+      </c>
+      <c r="R1" t="s">
         <v>120</v>
       </c>
-      <c r="R1" t="s">
-        <v>124</v>
-      </c>
       <c r="S1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="U1" t="s">
+        <v>162</v>
+      </c>
+      <c r="V1" t="s">
+        <v>158</v>
+      </c>
+      <c r="W1" t="s">
+        <v>159</v>
+      </c>
+      <c r="X1" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4953,8 +5904,17 @@
       <c r="P2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q2" t="s">
+        <v>152</v>
+      </c>
+      <c r="R2">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5000,13 +5960,22 @@
       <c r="P3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q3" t="s">
+        <v>152</v>
+      </c>
+      <c r="R3">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -5050,8 +6019,29 @@
       <c r="P4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q4" t="s">
+        <v>152</v>
+      </c>
+      <c r="R4">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s">
+        <v>87</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>100000</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5101,10 +6091,31 @@
         <v>-0.25</v>
       </c>
       <c r="Q5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="R5">
+        <v>9</v>
+      </c>
+      <c r="T5" t="s">
+        <v>88</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="W5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5154,10 +6165,28 @@
         <v>-0.25</v>
       </c>
       <c r="Q6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="R6">
+        <v>11</v>
+      </c>
+      <c r="T6" t="s">
+        <v>88</v>
+      </c>
+      <c r="V6" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="W6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5206,8 +6235,26 @@
       <c r="P7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q7" t="s">
+        <v>113</v>
+      </c>
+      <c r="T7" t="s">
+        <v>141</v>
+      </c>
+      <c r="V7">
+        <v>-12</v>
+      </c>
+      <c r="W7">
+        <v>12</v>
+      </c>
+      <c r="X7">
+        <v>-10</v>
+      </c>
+      <c r="Y7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5256,8 +6303,26 @@
       <c r="P8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q8" t="s">
+        <v>113</v>
+      </c>
+      <c r="T8" t="s">
+        <v>141</v>
+      </c>
+      <c r="V8">
+        <v>-12</v>
+      </c>
+      <c r="W8">
+        <v>12</v>
+      </c>
+      <c r="X8">
+        <v>-10</v>
+      </c>
+      <c r="Y8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5306,8 +6371,26 @@
       <c r="P9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q9" t="s">
+        <v>113</v>
+      </c>
+      <c r="T9" t="s">
+        <v>141</v>
+      </c>
+      <c r="V9">
+        <v>-12</v>
+      </c>
+      <c r="W9">
+        <v>12</v>
+      </c>
+      <c r="X9">
+        <v>-10</v>
+      </c>
+      <c r="Y9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5356,8 +6439,14 @@
       <c r="P10" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q10" t="s">
+        <v>113</v>
+      </c>
+      <c r="T10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5406,8 +6495,14 @@
       <c r="P11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q11" t="s">
+        <v>113</v>
+      </c>
+      <c r="T11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5456,13 +6551,19 @@
       <c r="P12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q12" t="s">
+        <v>113</v>
+      </c>
+      <c r="T12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -5507,15 +6608,18 @@
         <v>0</v>
       </c>
       <c r="Q13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="T13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -5539,7 +6643,7 @@
         <v>-1</v>
       </c>
       <c r="J14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
@@ -5559,13 +6663,16 @@
       <c r="P14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -5589,7 +6696,7 @@
         <v>-1</v>
       </c>
       <c r="J15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
@@ -5609,13 +6716,19 @@
       <c r="P15" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q15" t="s">
+        <v>163</v>
+      </c>
+      <c r="T15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -5639,7 +6752,7 @@
         <v>-1</v>
       </c>
       <c r="J16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K16" t="b">
         <v>1</v>
@@ -5658,6 +6771,12 @@
       </c>
       <c r="P16" s="2">
         <v>0</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>163</v>
+      </c>
+      <c r="T16" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/ql-async/config_tlm_2.xlsx
+++ b/ql-async/config_tlm_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/ql-async/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62E2EB8-F177-1C4B-9755-C4CE933D0F3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37E291E-A7E0-C442-8C15-51F61AC0C9E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="700" windowWidth="29280" windowHeight="19140" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
+    <workbookView xWindow="3380" yWindow="780" windowWidth="29280" windowHeight="19140" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
   </bookViews>
   <sheets>
     <sheet name="smt" sheetId="1" r:id="rId1"/>
@@ -897,10 +897,10 @@
   <dimension ref="A1:Y112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1171,13 +1171,13 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>100000</v>
+        <v>70000</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>100000</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
@@ -5776,7 +5776,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6032,13 +6032,13 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>100000</v>
+        <v>70000</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>100000</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">

--- a/ql-async/config_tlm_2.xlsx
+++ b/ql-async/config_tlm_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/ql-async/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37E291E-A7E0-C442-8C15-51F61AC0C9E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF323776-CD30-2247-9E1A-550D4D1E247E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="780" windowWidth="29280" windowHeight="19140" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
+    <workbookView xWindow="3600" yWindow="460" windowWidth="28800" windowHeight="19140" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
   </bookViews>
   <sheets>
     <sheet name="smt" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="168">
   <si>
     <t>No.</t>
   </si>
@@ -273,9 +273,6 @@
     <t>Yaw</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
     <t>w idx</t>
   </si>
   <si>
@@ -532,6 +529,15 @@
   </si>
   <si>
     <t>Tchassis</t>
+  </si>
+  <si>
+    <t>data hd</t>
+  </si>
+  <si>
+    <t>data pl1</t>
+  </si>
+  <si>
+    <t>data pl2</t>
   </si>
 </sst>
 </file>
@@ -897,10 +903,10 @@
   <dimension ref="A1:Y112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y4" sqref="Y4"/>
+      <selection pane="bottomRight" activeCell="M68" sqref="M68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -925,64 +931,64 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" t="s">
         <v>110</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>111</v>
-      </c>
-      <c r="I1" t="s">
-        <v>112</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
       </c>
       <c r="K1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P1" t="s">
         <v>107</v>
       </c>
-      <c r="P1" t="s">
-        <v>108</v>
-      </c>
       <c r="Q1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="V1" t="s">
+        <v>157</v>
+      </c>
+      <c r="W1" t="s">
         <v>158</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>159</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>160</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
@@ -1032,16 +1038,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
@@ -1091,16 +1097,16 @@
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -1108,7 +1114,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1153,16 +1159,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R4">
         <v>2</v>
       </c>
       <c r="S4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -1230,16 +1236,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U5">
         <v>2</v>
@@ -1307,16 +1313,16 @@
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R6">
         <v>1</v>
       </c>
       <c r="S6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V6" s="2">
         <v>-0.2</v>
@@ -1381,16 +1387,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R7">
         <v>2</v>
       </c>
       <c r="S7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V7" s="2">
         <v>-0.2</v>
@@ -1455,16 +1461,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R8">
         <v>3</v>
       </c>
       <c r="S8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V8" s="2">
         <v>-0.1</v>
@@ -1529,16 +1535,16 @@
         <v>0</v>
       </c>
       <c r="Q9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R9">
         <v>4</v>
       </c>
       <c r="S9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V9" s="2">
         <v>-0.1</v>
@@ -1603,16 +1609,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R10">
         <v>5</v>
       </c>
       <c r="S10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V10" s="2">
         <v>-0.1</v>
@@ -1677,16 +1683,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R11">
         <v>6</v>
       </c>
       <c r="S11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V11" s="2">
         <v>-0.1</v>
@@ -1751,16 +1757,16 @@
         <v>0</v>
       </c>
       <c r="Q12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R12">
         <v>7</v>
       </c>
       <c r="S12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V12" s="2">
         <v>-0.1</v>
@@ -1825,16 +1831,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R13">
         <v>8</v>
       </c>
       <c r="S13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V13" s="2">
         <v>-0.1</v>
@@ -1899,16 +1905,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R14">
         <v>10</v>
       </c>
       <c r="S14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V14" s="2">
         <v>-0.1</v>
@@ -1973,16 +1979,16 @@
         <v>0</v>
       </c>
       <c r="Q15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R15">
         <v>10</v>
       </c>
       <c r="S15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
@@ -2035,16 +2041,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R16">
         <v>11</v>
       </c>
       <c r="S16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
@@ -2097,16 +2103,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17" t="s">
+        <v>99</v>
+      </c>
+      <c r="T17" t="s">
         <v>100</v>
-      </c>
-      <c r="T17" t="s">
-        <v>101</v>
       </c>
       <c r="U17">
         <v>3</v>
@@ -2174,16 +2180,16 @@
         <v>0</v>
       </c>
       <c r="Q18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R18">
         <v>1</v>
       </c>
       <c r="S18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V18" s="2">
         <v>-5</v>
@@ -2248,16 +2254,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R19">
         <v>2</v>
       </c>
       <c r="S19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="T19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V19" s="2">
         <v>-5</v>
@@ -2322,13 +2328,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R20">
         <v>3</v>
       </c>
       <c r="T20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V20" s="2">
         <v>-5</v>
@@ -2393,13 +2399,13 @@
         <v>0</v>
       </c>
       <c r="Q21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R21">
         <v>4</v>
       </c>
       <c r="T21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V21" s="2">
         <v>-5</v>
@@ -2464,13 +2470,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R22">
         <v>6</v>
       </c>
       <c r="T22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V22" s="2">
         <v>-20</v>
@@ -2535,13 +2541,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R23">
         <v>7</v>
       </c>
       <c r="T23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V23" s="2">
         <v>-20</v>
@@ -2606,13 +2612,13 @@
         <v>0</v>
       </c>
       <c r="Q24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R24">
         <v>8</v>
       </c>
       <c r="T24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V24" s="2">
         <v>-5</v>
@@ -2677,13 +2683,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R25">
         <v>6</v>
       </c>
       <c r="T25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V25" s="2">
         <v>-5</v>
@@ -2748,13 +2754,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R26">
         <v>7</v>
       </c>
       <c r="T26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V26" s="2">
         <v>-5</v>
@@ -2819,13 +2825,13 @@
         <v>0</v>
       </c>
       <c r="Q27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R27">
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U27">
         <v>4</v>
@@ -2893,13 +2899,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R28">
         <v>1</v>
       </c>
       <c r="T28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="V28" s="2">
         <v>-12</v>
@@ -2964,13 +2970,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R29">
         <v>2</v>
       </c>
       <c r="T29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="V29" s="2">
         <v>-12</v>
@@ -3035,13 +3041,13 @@
         <v>0</v>
       </c>
       <c r="Q30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R30">
         <v>3</v>
       </c>
       <c r="T30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V30" s="2">
         <v>-1200</v>
@@ -3106,13 +3112,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R31">
         <v>4</v>
       </c>
       <c r="T31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V31" s="2">
         <v>-1200</v>
@@ -3177,13 +3183,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R32">
         <v>5</v>
       </c>
       <c r="T32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V32" s="2">
         <v>-1200</v>
@@ -3248,13 +3254,13 @@
         <v>0</v>
       </c>
       <c r="Q33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R33">
         <v>6</v>
       </c>
       <c r="T33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="V33" s="2">
         <v>-1000000</v>
@@ -3319,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R34">
         <v>7</v>
       </c>
       <c r="T34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="V34" s="2">
         <v>-1000000</v>
@@ -3390,13 +3396,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R35">
         <v>8</v>
       </c>
       <c r="T35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="V35" s="2">
         <v>-1000000</v>
@@ -3461,13 +3467,13 @@
         <v>0</v>
       </c>
       <c r="Q36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R36">
         <v>9</v>
       </c>
       <c r="T36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V36">
         <v>-220</v>
@@ -3532,13 +3538,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R37">
         <v>10</v>
       </c>
       <c r="T37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V37">
         <v>-110</v>
@@ -3603,13 +3609,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R38">
         <v>11</v>
       </c>
       <c r="T38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V38">
         <v>-110</v>
@@ -3653,7 +3659,7 @@
         <v>-1</v>
       </c>
       <c r="J39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K39" t="b">
         <v>1</v>
@@ -3674,10 +3680,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.2">
@@ -3685,7 +3691,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -3730,10 +3736,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
@@ -3765,7 +3771,7 @@
         <v>-1</v>
       </c>
       <c r="J41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
@@ -3786,13 +3792,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R41">
         <v>0</v>
       </c>
       <c r="T41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
@@ -3824,7 +3830,7 @@
         <v>-1</v>
       </c>
       <c r="J42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
@@ -3845,13 +3851,13 @@
         <v>0</v>
       </c>
       <c r="Q42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R42">
         <v>1</v>
       </c>
       <c r="T42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.2">
@@ -3904,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R43">
         <v>0</v>
@@ -3975,7 +3981,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R44">
         <v>1</v>
@@ -4046,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R45">
         <v>2</v>
@@ -4072,7 +4078,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -4117,16 +4123,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R46">
         <v>3</v>
       </c>
       <c r="S46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V46">
         <v>-1</v>
@@ -4140,7 +4146,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -4164,7 +4170,7 @@
         <v>-1</v>
       </c>
       <c r="J47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
@@ -4185,13 +4191,13 @@
         <v>1</v>
       </c>
       <c r="Q47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R47">
         <v>6</v>
       </c>
       <c r="T47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V47">
         <v>-0.4</v>
@@ -4211,7 +4217,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -4235,7 +4241,7 @@
         <v>-1</v>
       </c>
       <c r="J48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
@@ -4256,13 +4262,13 @@
         <v>1</v>
       </c>
       <c r="Q48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R48">
         <v>7</v>
       </c>
       <c r="T48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V48">
         <v>-0.4</v>
@@ -4282,7 +4288,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -4306,7 +4312,7 @@
         <v>-1</v>
       </c>
       <c r="J49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
@@ -4327,13 +4333,13 @@
         <v>1</v>
       </c>
       <c r="Q49" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R49">
         <v>8</v>
       </c>
       <c r="T49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V49">
         <v>-0.4</v>
@@ -4353,7 +4359,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -4377,7 +4383,7 @@
         <v>-1</v>
       </c>
       <c r="J50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
@@ -4398,13 +4404,13 @@
         <v>1</v>
       </c>
       <c r="Q50" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R50">
         <v>9</v>
       </c>
       <c r="T50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V50">
         <v>-0.4</v>
@@ -4424,7 +4430,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -4448,7 +4454,7 @@
         <v>-1</v>
       </c>
       <c r="J51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
@@ -4469,13 +4475,13 @@
         <v>1</v>
       </c>
       <c r="Q51" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R51">
         <v>12</v>
       </c>
       <c r="T51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V51">
         <v>-0.4</v>
@@ -4495,7 +4501,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -4519,7 +4525,7 @@
         <v>-1</v>
       </c>
       <c r="J52" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
@@ -4540,13 +4546,13 @@
         <v>1</v>
       </c>
       <c r="Q52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R52">
         <v>13</v>
       </c>
       <c r="T52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V52">
         <v>-0.4</v>
@@ -4566,7 +4572,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4590,7 +4596,7 @@
         <v>-1</v>
       </c>
       <c r="J53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
@@ -4611,13 +4617,13 @@
         <v>1</v>
       </c>
       <c r="Q53" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R53">
         <v>14</v>
       </c>
       <c r="T53" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V53">
         <v>-0.4</v>
@@ -4637,7 +4643,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -4661,7 +4667,7 @@
         <v>-1</v>
       </c>
       <c r="J54" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
@@ -4682,13 +4688,13 @@
         <v>1</v>
       </c>
       <c r="Q54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R54">
         <v>15</v>
       </c>
       <c r="T54" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V54">
         <v>-0.4</v>
@@ -4708,7 +4714,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -4732,7 +4738,7 @@
         <v>-1</v>
       </c>
       <c r="J55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
@@ -4753,13 +4759,13 @@
         <v>0</v>
       </c>
       <c r="Q55" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R55">
         <v>18</v>
       </c>
       <c r="T55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V55">
         <v>-0.4</v>
@@ -4779,7 +4785,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4803,7 +4809,7 @@
         <v>-1</v>
       </c>
       <c r="J56" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
@@ -4824,13 +4830,13 @@
         <v>0</v>
       </c>
       <c r="Q56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R56">
         <v>19</v>
       </c>
       <c r="T56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V56">
         <v>-0.4</v>
@@ -4850,7 +4856,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4874,7 +4880,7 @@
         <v>-1</v>
       </c>
       <c r="J57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
@@ -4895,13 +4901,13 @@
         <v>0</v>
       </c>
       <c r="Q57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R57">
         <v>20</v>
       </c>
       <c r="T57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V57">
         <v>-0.4</v>
@@ -4921,7 +4927,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -4945,7 +4951,7 @@
         <v>-1</v>
       </c>
       <c r="J58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
@@ -4966,13 +4972,13 @@
         <v>0</v>
       </c>
       <c r="Q58" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R58">
         <v>21</v>
       </c>
       <c r="T58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V58">
         <v>-0.4</v>
@@ -4992,7 +4998,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -5016,7 +5022,7 @@
         <v>-1</v>
       </c>
       <c r="J59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
@@ -5037,13 +5043,13 @@
         <v>0</v>
       </c>
       <c r="Q59" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R59">
         <v>24</v>
       </c>
       <c r="T59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V59">
         <v>-0.4</v>
@@ -5063,7 +5069,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -5087,7 +5093,7 @@
         <v>-1</v>
       </c>
       <c r="J60" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
@@ -5108,13 +5114,13 @@
         <v>0</v>
       </c>
       <c r="Q60" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R60">
         <v>25</v>
       </c>
       <c r="T60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V60">
         <v>-0.4</v>
@@ -5134,7 +5140,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -5158,7 +5164,7 @@
         <v>-1</v>
       </c>
       <c r="J61" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
@@ -5179,13 +5185,13 @@
         <v>0</v>
       </c>
       <c r="Q61" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R61">
         <v>26</v>
       </c>
       <c r="T61" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V61">
         <v>-0.4</v>
@@ -5229,7 +5235,7 @@
         <v>-1</v>
       </c>
       <c r="J62" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
@@ -5250,13 +5256,13 @@
         <v>0</v>
       </c>
       <c r="Q62" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R62">
         <v>27</v>
       </c>
       <c r="T62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V62">
         <v>-0.4</v>
@@ -5276,7 +5282,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -5321,13 +5327,13 @@
         <v>0</v>
       </c>
       <c r="Q63" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R63">
         <v>8</v>
       </c>
       <c r="T63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V63" s="2">
         <v>-5</v>
@@ -5392,13 +5398,13 @@
         <v>0</v>
       </c>
       <c r="Q64" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R64">
         <v>12</v>
       </c>
       <c r="T64" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="V64">
         <v>-10</v>
@@ -5418,7 +5424,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -5463,13 +5469,13 @@
         <v>0</v>
       </c>
       <c r="Q65" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R65">
         <v>13</v>
       </c>
       <c r="T65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V65">
         <v>-1</v>
@@ -5534,13 +5540,13 @@
         <v>0</v>
       </c>
       <c r="Q66" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R66">
         <v>14</v>
       </c>
       <c r="T66" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V66">
         <v>-1</v>
@@ -5587,7 +5593,7 @@
         <v>54</v>
       </c>
       <c r="K67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67">
         <v>2</v>
@@ -5605,13 +5611,13 @@
         <v>0</v>
       </c>
       <c r="Q67" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R67">
         <v>15</v>
       </c>
       <c r="T67" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.2">
@@ -5773,10 +5779,10 @@
   <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V4" sqref="V4"/>
+      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5798,64 +5804,64 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" t="s">
         <v>110</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>111</v>
-      </c>
-      <c r="I1" t="s">
-        <v>112</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
       </c>
       <c r="K1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P1" t="s">
         <v>107</v>
       </c>
-      <c r="P1" t="s">
-        <v>108</v>
-      </c>
       <c r="Q1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="V1" t="s">
+        <v>157</v>
+      </c>
+      <c r="W1" t="s">
         <v>158</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>159</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>160</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
@@ -5905,13 +5911,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R2">
         <v>3</v>
       </c>
       <c r="T2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
@@ -5961,13 +5967,13 @@
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R3">
         <v>4</v>
       </c>
       <c r="T3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -5975,7 +5981,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -6020,13 +6026,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R4">
         <v>5</v>
       </c>
       <c r="T4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -6091,13 +6097,13 @@
         <v>-0.25</v>
       </c>
       <c r="Q5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R5">
         <v>9</v>
       </c>
       <c r="T5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U5">
         <v>1</v>
@@ -6165,13 +6171,13 @@
         <v>-0.25</v>
       </c>
       <c r="Q6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R6">
         <v>11</v>
       </c>
       <c r="T6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V6" s="2">
         <v>-0.1</v>
@@ -6236,10 +6242,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="V7">
         <v>-12</v>
@@ -6304,10 +6310,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="V8">
         <v>-12</v>
@@ -6372,10 +6378,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="V9">
         <v>-12</v>
@@ -6440,10 +6446,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
@@ -6496,10 +6502,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
@@ -6552,10 +6558,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
@@ -6563,7 +6569,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -6608,10 +6614,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
@@ -6619,7 +6625,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -6643,7 +6649,7 @@
         <v>-1</v>
       </c>
       <c r="J14" t="s">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
@@ -6664,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
@@ -6672,7 +6678,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -6696,10 +6702,10 @@
         <v>-1</v>
       </c>
       <c r="J15" t="s">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="K15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>14</v>
@@ -6717,10 +6723,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="T15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
@@ -6728,7 +6734,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -6752,10 +6758,10 @@
         <v>-1</v>
       </c>
       <c r="J16" t="s">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="K16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>28</v>
@@ -6773,10 +6779,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="T16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/ql-async/config_tlm_2.xlsx
+++ b/ql-async/config_tlm_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/ql-async/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF323776-CD30-2247-9E1A-550D4D1E247E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40E67E3-3D9D-494E-9D3A-8DCE2D9C7FCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="460" windowWidth="28800" windowHeight="19140" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
+    <workbookView xWindow="3580" yWindow="460" windowWidth="28800" windowHeight="19140" activeTab="1" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
   </bookViews>
   <sheets>
     <sheet name="smt" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="173">
   <si>
     <t>No.</t>
   </si>
@@ -483,9 +483,6 @@
     <t>ordinary item</t>
   </si>
   <si>
-    <t>rel</t>
-  </si>
-  <si>
     <t>Day</t>
   </si>
   <si>
@@ -538,6 +535,24 @@
   </si>
   <si>
     <t>data pl2</t>
+  </si>
+  <si>
+    <t>W028</t>
+  </si>
+  <si>
+    <t>debug</t>
+  </si>
+  <si>
+    <t>W013</t>
+  </si>
+  <si>
+    <t>W017</t>
+  </si>
+  <si>
+    <t>W016</t>
+  </si>
+  <si>
+    <t>W018</t>
   </si>
 </sst>
 </file>
@@ -902,11 +917,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE05D0F0-18B2-A045-A8BA-808A6B30C776}">
   <dimension ref="A1:Y112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M68" sqref="M68"/>
+      <selection pane="bottomRight" activeCell="P46" sqref="P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -976,19 +991,19 @@
         <v>83</v>
       </c>
       <c r="U1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="V1" t="s">
+        <v>156</v>
+      </c>
+      <c r="W1" t="s">
         <v>157</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>158</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>159</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
@@ -1038,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T2" t="s">
         <v>84</v>
@@ -1097,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T3" t="s">
         <v>85</v>
@@ -1159,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R4">
         <v>2</v>
@@ -1467,7 +1482,7 @@
         <v>3</v>
       </c>
       <c r="S8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T8" t="s">
         <v>87</v>
@@ -1541,7 +1556,7 @@
         <v>4</v>
       </c>
       <c r="S9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T9" t="s">
         <v>87</v>
@@ -2186,7 +2201,7 @@
         <v>1</v>
       </c>
       <c r="S18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T18" t="s">
         <v>100</v>
@@ -2260,7 +2275,7 @@
         <v>2</v>
       </c>
       <c r="S19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T19" t="s">
         <v>100</v>
@@ -3680,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T39" t="s">
         <v>142</v>
@@ -3736,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T40" t="s">
         <v>86</v>
@@ -3789,10 +3804,10 @@
         <v>1</v>
       </c>
       <c r="P41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R41">
         <v>0</v>
@@ -3848,10 +3863,10 @@
         <v>2</v>
       </c>
       <c r="P42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R42">
         <v>1</v>
@@ -4105,7 +4120,7 @@
         <v>52</v>
       </c>
       <c r="K46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46">
         <v>1</v>
@@ -4123,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R46">
         <v>3</v>
@@ -4170,7 +4185,7 @@
         <v>-1</v>
       </c>
       <c r="J47" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
@@ -4191,7 +4206,7 @@
         <v>1</v>
       </c>
       <c r="Q47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R47">
         <v>6</v>
@@ -4241,7 +4256,7 @@
         <v>-1</v>
       </c>
       <c r="J48" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
@@ -4262,7 +4277,7 @@
         <v>1</v>
       </c>
       <c r="Q48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R48">
         <v>7</v>
@@ -4312,7 +4327,7 @@
         <v>-1</v>
       </c>
       <c r="J49" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
@@ -4333,7 +4348,7 @@
         <v>1</v>
       </c>
       <c r="Q49" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R49">
         <v>8</v>
@@ -4383,7 +4398,7 @@
         <v>-1</v>
       </c>
       <c r="J50" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
@@ -4404,7 +4419,7 @@
         <v>1</v>
       </c>
       <c r="Q50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R50">
         <v>9</v>
@@ -4454,7 +4469,7 @@
         <v>-1</v>
       </c>
       <c r="J51" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
@@ -4475,7 +4490,7 @@
         <v>1</v>
       </c>
       <c r="Q51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R51">
         <v>12</v>
@@ -4525,7 +4540,7 @@
         <v>-1</v>
       </c>
       <c r="J52" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
@@ -4546,7 +4561,7 @@
         <v>1</v>
       </c>
       <c r="Q52" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R52">
         <v>13</v>
@@ -4596,7 +4611,7 @@
         <v>-1</v>
       </c>
       <c r="J53" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
@@ -4617,7 +4632,7 @@
         <v>1</v>
       </c>
       <c r="Q53" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R53">
         <v>14</v>
@@ -4667,7 +4682,7 @@
         <v>-1</v>
       </c>
       <c r="J54" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
@@ -4688,7 +4703,7 @@
         <v>1</v>
       </c>
       <c r="Q54" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R54">
         <v>15</v>
@@ -4738,7 +4753,7 @@
         <v>-1</v>
       </c>
       <c r="J55" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
@@ -4759,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R55">
         <v>18</v>
@@ -4809,7 +4824,7 @@
         <v>-1</v>
       </c>
       <c r="J56" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
@@ -4830,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R56">
         <v>19</v>
@@ -4880,7 +4895,7 @@
         <v>-1</v>
       </c>
       <c r="J57" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
@@ -4901,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R57">
         <v>20</v>
@@ -4951,7 +4966,7 @@
         <v>-1</v>
       </c>
       <c r="J58" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
@@ -4972,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R58">
         <v>21</v>
@@ -5022,7 +5037,7 @@
         <v>-1</v>
       </c>
       <c r="J59" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
@@ -5043,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R59">
         <v>24</v>
@@ -5093,7 +5108,7 @@
         <v>-1</v>
       </c>
       <c r="J60" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
@@ -5114,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R60">
         <v>25</v>
@@ -5164,7 +5179,7 @@
         <v>-1</v>
       </c>
       <c r="J61" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
@@ -5185,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R61">
         <v>26</v>
@@ -5235,7 +5250,7 @@
         <v>-1</v>
       </c>
       <c r="J62" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
@@ -5256,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R62">
         <v>27</v>
@@ -5282,7 +5297,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -5617,6 +5632,62 @@
         <v>15</v>
       </c>
       <c r="T67" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>167</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>28</v>
+      </c>
+      <c r="G68">
+        <v>-1</v>
+      </c>
+      <c r="H68">
+        <v>-1</v>
+      </c>
+      <c r="I68">
+        <v>-1</v>
+      </c>
+      <c r="J68" t="s">
+        <v>52</v>
+      </c>
+      <c r="K68" t="b">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68" t="b">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>16</v>
+      </c>
+      <c r="O68" s="2">
+        <v>1</v>
+      </c>
+      <c r="P68" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>168</v>
+      </c>
+      <c r="T68" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5776,13 +5847,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7831BB-F7C3-7546-89C2-6E8E0330469B}">
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5849,19 +5920,19 @@
         <v>83</v>
       </c>
       <c r="U1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="V1" t="s">
+        <v>156</v>
+      </c>
+      <c r="W1" t="s">
         <v>157</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>158</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>159</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
@@ -5911,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R2">
         <v>3</v>
@@ -5967,7 +6038,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R3">
         <v>4</v>
@@ -5981,7 +6052,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -6026,7 +6097,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R4">
         <v>5</v>
@@ -6614,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T13" t="s">
         <v>86</v>
@@ -6649,7 +6720,7 @@
         <v>-1</v>
       </c>
       <c r="J14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
@@ -6670,7 +6741,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
@@ -6702,7 +6773,7 @@
         <v>-1</v>
       </c>
       <c r="J15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
@@ -6723,7 +6794,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T15" t="s">
         <v>87</v>
@@ -6758,7 +6829,7 @@
         <v>-1</v>
       </c>
       <c r="J16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
@@ -6779,10 +6850,231 @@
         <v>0</v>
       </c>
       <c r="Q16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T16" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>13</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+      <c r="H17">
+        <v>-1</v>
+      </c>
+      <c r="I17">
+        <v>-1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>16</v>
+      </c>
+      <c r="O17" s="2">
+        <v>1</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>161</v>
+      </c>
+      <c r="T17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>16</v>
+      </c>
+      <c r="G18">
+        <v>-1</v>
+      </c>
+      <c r="H18">
+        <v>-1</v>
+      </c>
+      <c r="I18">
+        <v>-1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>16</v>
+      </c>
+      <c r="O18" s="2">
+        <v>1</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>161</v>
+      </c>
+      <c r="T18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>17</v>
+      </c>
+      <c r="G19">
+        <v>-1</v>
+      </c>
+      <c r="H19">
+        <v>-1</v>
+      </c>
+      <c r="I19">
+        <v>-1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>52</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>16</v>
+      </c>
+      <c r="O19" s="2">
+        <v>1</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>161</v>
+      </c>
+      <c r="T19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>18</v>
+      </c>
+      <c r="G20">
+        <v>-1</v>
+      </c>
+      <c r="H20">
+        <v>-1</v>
+      </c>
+      <c r="I20">
+        <v>-1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>16</v>
+      </c>
+      <c r="O20" s="2">
+        <v>1</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/ql-async/config_tlm_2.xlsx
+++ b/ql-async/config_tlm_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/ql-async/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40E67E3-3D9D-494E-9D3A-8DCE2D9C7FCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E59428-EFE1-0047-B680-B3F198FFE8C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="460" windowWidth="28800" windowHeight="19140" activeTab="1" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
+    <workbookView xWindow="3580" yWindow="460" windowWidth="28800" windowHeight="19140" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
   </bookViews>
   <sheets>
     <sheet name="smt" sheetId="1" r:id="rId1"/>
@@ -339,9 +339,6 @@
     <t>°C</t>
   </si>
   <si>
-    <t>bit</t>
-  </si>
-  <si>
     <t>deg</t>
   </si>
   <si>
@@ -553,6 +550,9 @@
   </si>
   <si>
     <t>W018</t>
+  </si>
+  <si>
+    <t>bool</t>
   </si>
 </sst>
 </file>
@@ -917,11 +917,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE05D0F0-18B2-A045-A8BA-808A6B30C776}">
   <dimension ref="A1:Y112"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P46" sqref="P46"/>
+      <selection pane="bottomRight" activeCell="J47" sqref="J47:J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -949,40 +949,40 @@
         <v>79</v>
       </c>
       <c r="G1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" t="s">
         <v>109</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>110</v>
-      </c>
-      <c r="I1" t="s">
-        <v>111</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
       </c>
       <c r="K1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P1" t="s">
         <v>106</v>
       </c>
-      <c r="P1" t="s">
-        <v>107</v>
-      </c>
       <c r="Q1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S1" t="s">
         <v>80</v>
@@ -991,19 +991,19 @@
         <v>83</v>
       </c>
       <c r="U1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="V1" t="s">
+        <v>155</v>
+      </c>
+      <c r="W1" t="s">
         <v>156</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>157</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>158</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T2" t="s">
         <v>84</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T3" t="s">
         <v>85</v>
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R4">
         <v>2</v>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R6">
         <v>1</v>
@@ -1402,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R7">
         <v>2</v>
@@ -1476,13 +1476,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R8">
         <v>3</v>
       </c>
       <c r="S8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T8" t="s">
         <v>87</v>
@@ -1550,13 +1550,13 @@
         <v>0</v>
       </c>
       <c r="Q9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R9">
         <v>4</v>
       </c>
       <c r="S9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T9" t="s">
         <v>87</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R10">
         <v>5</v>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R11">
         <v>6</v>
@@ -1772,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R12">
         <v>7</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R13">
         <v>8</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R14">
         <v>10</v>
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R15">
         <v>10</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R16">
         <v>11</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -2195,13 +2195,13 @@
         <v>0</v>
       </c>
       <c r="Q18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R18">
         <v>1</v>
       </c>
       <c r="S18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T18" t="s">
         <v>100</v>
@@ -2269,13 +2269,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R19">
         <v>2</v>
       </c>
       <c r="S19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T19" t="s">
         <v>100</v>
@@ -2343,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R20">
         <v>3</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R21">
         <v>4</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R22">
         <v>6</v>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R23">
         <v>7</v>
@@ -2627,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R24">
         <v>8</v>
@@ -2698,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R25">
         <v>6</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R26">
         <v>7</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="Q27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R27">
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="U27">
         <v>4</v>
@@ -2914,13 +2914,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R28">
         <v>1</v>
       </c>
       <c r="T28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="V28" s="2">
         <v>-12</v>
@@ -2985,13 +2985,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R29">
         <v>2</v>
       </c>
       <c r="T29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="V29" s="2">
         <v>-12</v>
@@ -3056,13 +3056,13 @@
         <v>0</v>
       </c>
       <c r="Q30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R30">
         <v>3</v>
       </c>
       <c r="T30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="V30" s="2">
         <v>-1200</v>
@@ -3127,13 +3127,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R31">
         <v>4</v>
       </c>
       <c r="T31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="V31" s="2">
         <v>-1200</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R32">
         <v>5</v>
       </c>
       <c r="T32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="V32" s="2">
         <v>-1200</v>
@@ -3269,13 +3269,13 @@
         <v>0</v>
       </c>
       <c r="Q33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R33">
         <v>6</v>
       </c>
       <c r="T33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V33" s="2">
         <v>-1000000</v>
@@ -3340,13 +3340,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R34">
         <v>7</v>
       </c>
       <c r="T34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V34" s="2">
         <v>-1000000</v>
@@ -3411,13 +3411,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R35">
         <v>8</v>
       </c>
       <c r="T35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V35" s="2">
         <v>-1000000</v>
@@ -3482,13 +3482,13 @@
         <v>0</v>
       </c>
       <c r="Q36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R36">
         <v>9</v>
       </c>
       <c r="T36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V36">
         <v>-220</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R37">
         <v>10</v>
       </c>
       <c r="T37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V37">
         <v>-110</v>
@@ -3624,13 +3624,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R38">
         <v>11</v>
       </c>
       <c r="T38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V38">
         <v>-110</v>
@@ -3674,7 +3674,7 @@
         <v>-1</v>
       </c>
       <c r="J39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K39" t="b">
         <v>1</v>
@@ -3695,10 +3695,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.2">
@@ -3706,7 +3706,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T40" t="s">
         <v>86</v>
@@ -3786,7 +3786,7 @@
         <v>-1</v>
       </c>
       <c r="J41" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
@@ -3807,7 +3807,7 @@
         <v>1</v>
       </c>
       <c r="Q41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R41">
         <v>0</v>
@@ -3845,7 +3845,7 @@
         <v>-1</v>
       </c>
       <c r="J42" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>1</v>
       </c>
       <c r="Q42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R42">
         <v>1</v>
@@ -3925,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R43">
         <v>0</v>
@@ -3996,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R44">
         <v>1</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R45">
         <v>2</v>
@@ -4093,7 +4093,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -4138,13 +4138,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R46">
         <v>3</v>
       </c>
       <c r="S46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T46" t="s">
         <v>86</v>
@@ -4161,7 +4161,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -4185,7 +4185,7 @@
         <v>-1</v>
       </c>
       <c r="J47" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
@@ -4206,7 +4206,7 @@
         <v>1</v>
       </c>
       <c r="Q47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R47">
         <v>6</v>
@@ -4232,7 +4232,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -4256,7 +4256,7 @@
         <v>-1</v>
       </c>
       <c r="J48" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
@@ -4277,7 +4277,7 @@
         <v>1</v>
       </c>
       <c r="Q48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R48">
         <v>7</v>
@@ -4303,7 +4303,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -4327,7 +4327,7 @@
         <v>-1</v>
       </c>
       <c r="J49" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
@@ -4348,7 +4348,7 @@
         <v>1</v>
       </c>
       <c r="Q49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R49">
         <v>8</v>
@@ -4374,7 +4374,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -4398,7 +4398,7 @@
         <v>-1</v>
       </c>
       <c r="J50" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
@@ -4419,7 +4419,7 @@
         <v>1</v>
       </c>
       <c r="Q50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R50">
         <v>9</v>
@@ -4445,7 +4445,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -4469,7 +4469,7 @@
         <v>-1</v>
       </c>
       <c r="J51" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
@@ -4490,7 +4490,7 @@
         <v>1</v>
       </c>
       <c r="Q51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R51">
         <v>12</v>
@@ -4516,7 +4516,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -4540,7 +4540,7 @@
         <v>-1</v>
       </c>
       <c r="J52" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
@@ -4561,7 +4561,7 @@
         <v>1</v>
       </c>
       <c r="Q52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R52">
         <v>13</v>
@@ -4587,7 +4587,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4611,7 +4611,7 @@
         <v>-1</v>
       </c>
       <c r="J53" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
@@ -4632,7 +4632,7 @@
         <v>1</v>
       </c>
       <c r="Q53" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R53">
         <v>14</v>
@@ -4658,7 +4658,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -4682,7 +4682,7 @@
         <v>-1</v>
       </c>
       <c r="J54" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
@@ -4703,7 +4703,7 @@
         <v>1</v>
       </c>
       <c r="Q54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R54">
         <v>15</v>
@@ -4729,7 +4729,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -4753,7 +4753,7 @@
         <v>-1</v>
       </c>
       <c r="J55" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
@@ -4774,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R55">
         <v>18</v>
@@ -4800,7 +4800,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4824,7 +4824,7 @@
         <v>-1</v>
       </c>
       <c r="J56" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
@@ -4845,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R56">
         <v>19</v>
@@ -4871,7 +4871,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4895,7 +4895,7 @@
         <v>-1</v>
       </c>
       <c r="J57" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
@@ -4916,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R57">
         <v>20</v>
@@ -4942,7 +4942,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -4966,7 +4966,7 @@
         <v>-1</v>
       </c>
       <c r="J58" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
@@ -4987,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R58">
         <v>21</v>
@@ -5013,7 +5013,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -5037,7 +5037,7 @@
         <v>-1</v>
       </c>
       <c r="J59" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R59">
         <v>24</v>
@@ -5084,7 +5084,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -5108,7 +5108,7 @@
         <v>-1</v>
       </c>
       <c r="J60" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
@@ -5129,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R60">
         <v>25</v>
@@ -5155,7 +5155,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -5179,7 +5179,7 @@
         <v>-1</v>
       </c>
       <c r="J61" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R61">
         <v>26</v>
@@ -5250,7 +5250,7 @@
         <v>-1</v>
       </c>
       <c r="J62" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
@@ -5271,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R62">
         <v>27</v>
@@ -5297,7 +5297,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -5342,7 +5342,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R63">
         <v>8</v>
@@ -5413,13 +5413,13 @@
         <v>0</v>
       </c>
       <c r="Q64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R64">
         <v>12</v>
       </c>
       <c r="T64" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V64">
         <v>-10</v>
@@ -5439,7 +5439,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -5484,13 +5484,13 @@
         <v>0</v>
       </c>
       <c r="Q65" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R65">
         <v>13</v>
       </c>
       <c r="T65" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V65">
         <v>-1</v>
@@ -5555,13 +5555,13 @@
         <v>0</v>
       </c>
       <c r="Q66" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R66">
         <v>14</v>
       </c>
       <c r="T66" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V66">
         <v>-1</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="Q67" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R67">
         <v>15</v>
@@ -5640,7 +5640,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -5685,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T68" t="s">
         <v>86</v>
@@ -5849,11 +5849,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7831BB-F7C3-7546-89C2-6E8E0330469B}">
   <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5878,40 +5878,40 @@
         <v>79</v>
       </c>
       <c r="G1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" t="s">
         <v>109</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>110</v>
-      </c>
-      <c r="I1" t="s">
-        <v>111</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
       </c>
       <c r="K1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P1" t="s">
         <v>106</v>
       </c>
-      <c r="P1" t="s">
-        <v>107</v>
-      </c>
       <c r="Q1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S1" t="s">
         <v>80</v>
@@ -5920,19 +5920,19 @@
         <v>83</v>
       </c>
       <c r="U1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="V1" t="s">
+        <v>155</v>
+      </c>
+      <c r="W1" t="s">
         <v>156</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>157</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>158</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
@@ -5982,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R2">
         <v>3</v>
@@ -6038,7 +6038,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R3">
         <v>4</v>
@@ -6052,7 +6052,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -6097,7 +6097,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R4">
         <v>5</v>
@@ -6168,7 +6168,7 @@
         <v>-0.25</v>
       </c>
       <c r="Q5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R5">
         <v>9</v>
@@ -6242,7 +6242,7 @@
         <v>-0.25</v>
       </c>
       <c r="Q6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R6">
         <v>11</v>
@@ -6313,10 +6313,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="V7">
         <v>-12</v>
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="V8">
         <v>-12</v>
@@ -6449,10 +6449,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="V9">
         <v>-12</v>
@@ -6517,10 +6517,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
@@ -6573,10 +6573,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
@@ -6629,10 +6629,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
@@ -6640,7 +6640,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -6685,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T13" t="s">
         <v>86</v>
@@ -6696,7 +6696,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -6720,7 +6720,7 @@
         <v>-1</v>
       </c>
       <c r="J14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
@@ -6741,7 +6741,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
@@ -6749,7 +6749,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -6773,7 +6773,7 @@
         <v>-1</v>
       </c>
       <c r="J15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
@@ -6794,7 +6794,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T15" t="s">
         <v>87</v>
@@ -6805,7 +6805,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -6829,7 +6829,7 @@
         <v>-1</v>
       </c>
       <c r="J16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T16" t="s">
         <v>87</v>
@@ -6861,7 +6861,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -6906,7 +6906,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="T17" t="s">
         <v>86</v>
@@ -6917,7 +6917,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -6962,7 +6962,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="T18" t="s">
         <v>86</v>
@@ -6973,7 +6973,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -7018,7 +7018,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="T19" t="s">
         <v>86</v>
@@ -7029,7 +7029,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -7074,7 +7074,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/ql-async/config_tlm_2.xlsx
+++ b/ql-async/config_tlm_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/ql-async/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E59428-EFE1-0047-B680-B3F198FFE8C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3816B5D-B632-974A-9C51-46DA5380880C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="460" windowWidth="28800" windowHeight="19140" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
+    <workbookView xWindow="3580" yWindow="460" windowWidth="28800" windowHeight="19140" activeTab="1" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
   </bookViews>
   <sheets>
     <sheet name="smt" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="172">
   <si>
     <t>No.</t>
   </si>
@@ -540,19 +540,16 @@
     <t>debug</t>
   </si>
   <si>
-    <t>W013</t>
-  </si>
-  <si>
-    <t>W017</t>
-  </si>
-  <si>
-    <t>W016</t>
-  </si>
-  <si>
     <t>W018</t>
   </si>
   <si>
     <t>bool</t>
+  </si>
+  <si>
+    <t>W009</t>
+  </si>
+  <si>
+    <t>W035</t>
   </si>
 </sst>
 </file>
@@ -917,7 +914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE05D0F0-18B2-A045-A8BA-808A6B30C776}">
   <dimension ref="A1:Y112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3786,7 +3783,7 @@
         <v>-1</v>
       </c>
       <c r="J41" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
@@ -3845,7 +3842,7 @@
         <v>-1</v>
       </c>
       <c r="J42" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
@@ -4185,7 +4182,7 @@
         <v>-1</v>
       </c>
       <c r="J47" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
@@ -4256,7 +4253,7 @@
         <v>-1</v>
       </c>
       <c r="J48" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
@@ -4327,7 +4324,7 @@
         <v>-1</v>
       </c>
       <c r="J49" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
@@ -4398,7 +4395,7 @@
         <v>-1</v>
       </c>
       <c r="J50" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
@@ -4469,7 +4466,7 @@
         <v>-1</v>
       </c>
       <c r="J51" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
@@ -4540,7 +4537,7 @@
         <v>-1</v>
       </c>
       <c r="J52" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
@@ -4611,7 +4608,7 @@
         <v>-1</v>
       </c>
       <c r="J53" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
@@ -4682,7 +4679,7 @@
         <v>-1</v>
       </c>
       <c r="J54" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
@@ -4753,7 +4750,7 @@
         <v>-1</v>
       </c>
       <c r="J55" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
@@ -4824,7 +4821,7 @@
         <v>-1</v>
       </c>
       <c r="J56" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
@@ -4895,7 +4892,7 @@
         <v>-1</v>
       </c>
       <c r="J57" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
@@ -4966,7 +4963,7 @@
         <v>-1</v>
       </c>
       <c r="J58" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
@@ -5037,7 +5034,7 @@
         <v>-1</v>
       </c>
       <c r="J59" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
@@ -5108,7 +5105,7 @@
         <v>-1</v>
       </c>
       <c r="J60" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
@@ -5179,7 +5176,7 @@
         <v>-1</v>
       </c>
       <c r="J61" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
@@ -5250,7 +5247,7 @@
         <v>-1</v>
       </c>
       <c r="J62" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
@@ -5847,13 +5844,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7831BB-F7C3-7546-89C2-6E8E0330469B}">
-  <dimension ref="A1:Y20"/>
+  <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q17" sqref="Q17"/>
+      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6156,7 +6153,7 @@
         <v>1</v>
       </c>
       <c r="M5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -6230,7 +6227,7 @@
         <v>1</v>
       </c>
       <c r="M6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -6861,7 +6858,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -6873,7 +6870,7 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G17">
         <v>-1</v>
@@ -6891,13 +6888,13 @@
         <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17" t="b">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="O17" s="2">
         <v>1</v>
@@ -6917,7 +6914,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -6929,7 +6926,7 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G18">
         <v>-1</v>
@@ -6963,9 +6960,6 @@
       </c>
       <c r="Q18" t="s">
         <v>167</v>
-      </c>
-      <c r="T18" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
@@ -6973,7 +6967,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -6985,7 +6979,7 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="G19">
         <v>-1</v>
@@ -7018,62 +7012,6 @@
         <v>0</v>
       </c>
       <c r="Q19" t="s">
-        <v>167</v>
-      </c>
-      <c r="T19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>171</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>18</v>
-      </c>
-      <c r="G20">
-        <v>-1</v>
-      </c>
-      <c r="H20">
-        <v>-1</v>
-      </c>
-      <c r="I20">
-        <v>-1</v>
-      </c>
-      <c r="J20" t="s">
-        <v>52</v>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20" t="b">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>16</v>
-      </c>
-      <c r="O20" s="2">
-        <v>1</v>
-      </c>
-      <c r="P20" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="s">
         <v>167</v>
       </c>
     </row>

--- a/ql-async/config_tlm_2.xlsx
+++ b/ql-async/config_tlm_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/ql-async/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3816B5D-B632-974A-9C51-46DA5380880C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376CF214-4950-2143-A495-859D8F0E28FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="460" windowWidth="28800" windowHeight="19140" activeTab="1" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
+    <workbookView xWindow="2280" yWindow="1520" windowWidth="28800" windowHeight="19140" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
   </bookViews>
   <sheets>
     <sheet name="smt" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="173">
   <si>
     <t>No.</t>
   </si>
@@ -246,9 +246,6 @@
     <t>CPU load</t>
   </si>
   <si>
-    <t>SSD free space</t>
-  </si>
-  <si>
     <t>Error Code</t>
   </si>
   <si>
@@ -288,9 +285,6 @@
     <t>unit</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
     <t>s</t>
   </si>
   <si>
@@ -550,6 +544,15 @@
   </si>
   <si>
     <t>W035</t>
+  </si>
+  <si>
+    <t>W013</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD occupation </t>
   </si>
 </sst>
 </file>
@@ -914,11 +917,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE05D0F0-18B2-A045-A8BA-808A6B30C776}">
   <dimension ref="A1:Y112"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J47" sqref="J47:J62"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -943,64 +946,64 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" t="s">
         <v>108</v>
-      </c>
-      <c r="H1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I1" t="s">
-        <v>110</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
       </c>
       <c r="K1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="R1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="S1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="V1" t="s">
+        <v>153</v>
+      </c>
+      <c r="W1" t="s">
+        <v>154</v>
+      </c>
+      <c r="X1" t="s">
         <v>155</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>156</v>
-      </c>
-      <c r="X1" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
@@ -1050,16 +1053,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="T2" t="s">
-        <v>84</v>
+        <v>171</v>
+      </c>
+      <c r="V2">
+        <v>-10</v>
+      </c>
+      <c r="W2">
+        <v>380</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
@@ -1109,16 +1124,16 @@
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="R3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="T3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -1126,7 +1141,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1171,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="R4">
         <v>2</v>
       </c>
       <c r="S4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -1189,13 +1204,13 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>70000</v>
+        <v>80000</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>70000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
@@ -1248,25 +1263,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="U5">
         <v>2</v>
       </c>
       <c r="V5" s="2">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="W5">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="X5">
         <v>0.3</v>
@@ -1325,22 +1340,22 @@
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="R6">
         <v>1</v>
       </c>
       <c r="S6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V6" s="2">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="W6">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="X6">
         <v>0.3</v>
@@ -1399,22 +1414,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="R7">
         <v>2</v>
       </c>
       <c r="S7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V7" s="2">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="W7">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="X7">
         <v>0.3</v>
@@ -1473,16 +1488,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="R8">
         <v>3</v>
       </c>
       <c r="S8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="T8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V8" s="2">
         <v>-0.1</v>
@@ -1547,16 +1562,16 @@
         <v>0</v>
       </c>
       <c r="Q9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="R9">
         <v>4</v>
       </c>
       <c r="S9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="T9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V9" s="2">
         <v>-0.1</v>
@@ -1621,16 +1636,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="R10">
         <v>5</v>
       </c>
       <c r="S10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="T10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V10" s="2">
         <v>-0.1</v>
@@ -1695,16 +1710,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="R11">
         <v>6</v>
       </c>
       <c r="S11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="T11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V11" s="2">
         <v>-0.1</v>
@@ -1769,16 +1784,16 @@
         <v>0</v>
       </c>
       <c r="Q12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="R12">
         <v>7</v>
       </c>
       <c r="S12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V12" s="2">
         <v>-0.1</v>
@@ -1843,16 +1858,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="R13">
         <v>8</v>
       </c>
       <c r="S13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="T13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V13" s="2">
         <v>-0.1</v>
@@ -1917,16 +1932,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="R14">
         <v>10</v>
       </c>
       <c r="S14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V14" s="2">
         <v>-0.1</v>
@@ -1970,7 +1985,7 @@
         <v>-1</v>
       </c>
       <c r="J15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
@@ -1991,16 +2006,28 @@
         <v>0</v>
       </c>
       <c r="Q15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="R15">
         <v>10</v>
       </c>
       <c r="S15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T15" t="s">
-        <v>96</v>
+        <v>94</v>
+      </c>
+      <c r="V15" s="2">
+        <v>-22</v>
+      </c>
+      <c r="W15">
+        <v>22</v>
+      </c>
+      <c r="X15">
+        <v>-22</v>
+      </c>
+      <c r="Y15">
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
@@ -2032,7 +2059,7 @@
         <v>-1</v>
       </c>
       <c r="J16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
@@ -2053,16 +2080,28 @@
         <v>0</v>
       </c>
       <c r="Q16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="R16">
         <v>11</v>
       </c>
       <c r="S16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="T16" t="s">
-        <v>96</v>
+        <v>94</v>
+      </c>
+      <c r="V16" s="2">
+        <v>-2500</v>
+      </c>
+      <c r="W16">
+        <v>2500</v>
+      </c>
+      <c r="X16">
+        <v>-2500</v>
+      </c>
+      <c r="Y16">
+        <v>2500</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
@@ -2115,16 +2154,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="U17">
         <v>3</v>
@@ -2192,16 +2231,16 @@
         <v>0</v>
       </c>
       <c r="Q18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="R18">
         <v>1</v>
       </c>
       <c r="S18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="T18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="V18" s="2">
         <v>-5</v>
@@ -2266,16 +2305,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="R19">
         <v>2</v>
       </c>
       <c r="S19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="T19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="V19" s="2">
         <v>-5</v>
@@ -2340,13 +2379,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="R20">
         <v>3</v>
       </c>
       <c r="T20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="V20" s="2">
         <v>-5</v>
@@ -2411,13 +2450,13 @@
         <v>0</v>
       </c>
       <c r="Q21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="R21">
         <v>4</v>
       </c>
       <c r="T21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="V21" s="2">
         <v>-5</v>
@@ -2482,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="R22">
         <v>6</v>
       </c>
       <c r="T22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="V22" s="2">
         <v>-20</v>
@@ -2553,13 +2592,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="R23">
         <v>7</v>
       </c>
       <c r="T23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="V23" s="2">
         <v>-20</v>
@@ -2624,13 +2663,13 @@
         <v>0</v>
       </c>
       <c r="Q24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="R24">
         <v>8</v>
       </c>
       <c r="T24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="V24" s="2">
         <v>-5</v>
@@ -2695,13 +2734,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R25">
         <v>6</v>
       </c>
       <c r="T25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="V25" s="2">
         <v>-5</v>
@@ -2766,13 +2805,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R26">
         <v>7</v>
       </c>
       <c r="T26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="V26" s="2">
         <v>-5</v>
@@ -2837,22 +2876,22 @@
         <v>0</v>
       </c>
       <c r="Q27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R27">
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U27">
         <v>4</v>
       </c>
       <c r="V27" s="2">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="W27">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X27">
         <v>-10</v>
@@ -2911,19 +2950,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R28">
         <v>1</v>
       </c>
       <c r="T28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V28" s="2">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="W28">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X28">
         <v>-10</v>
@@ -2982,19 +3021,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R29">
         <v>2</v>
       </c>
       <c r="T29" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V29" s="2">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="W29">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X29">
         <v>-10</v>
@@ -3053,13 +3092,13 @@
         <v>0</v>
       </c>
       <c r="Q30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R30">
         <v>3</v>
       </c>
       <c r="T30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="V30" s="2">
         <v>-1200</v>
@@ -3124,13 +3163,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R31">
         <v>4</v>
       </c>
       <c r="T31" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="V31" s="2">
         <v>-1200</v>
@@ -3195,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R32">
         <v>5</v>
       </c>
       <c r="T32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="V32" s="2">
         <v>-1200</v>
@@ -3266,19 +3305,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R33">
         <v>6</v>
       </c>
       <c r="T33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="V33" s="2">
-        <v>-1000000</v>
+        <v>-11800</v>
       </c>
       <c r="W33">
-        <v>1000000</v>
+        <v>11800</v>
       </c>
       <c r="X33">
         <v>-10000</v>
@@ -3337,19 +3376,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R34">
         <v>7</v>
       </c>
       <c r="T34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="V34" s="2">
-        <v>-1000000</v>
+        <v>-11800</v>
       </c>
       <c r="W34">
-        <v>1000000</v>
+        <v>11800</v>
       </c>
       <c r="X34">
         <v>-10000</v>
@@ -3408,19 +3447,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R35">
         <v>8</v>
       </c>
       <c r="T35" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="V35" s="2">
-        <v>-1000000</v>
+        <v>-11800</v>
       </c>
       <c r="W35">
-        <v>1000000</v>
+        <v>11800</v>
       </c>
       <c r="X35">
         <v>-10000</v>
@@ -3434,7 +3473,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -3479,13 +3518,13 @@
         <v>0</v>
       </c>
       <c r="Q36" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R36">
         <v>9</v>
       </c>
       <c r="T36" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="V36">
         <v>-220</v>
@@ -3494,7 +3533,7 @@
         <v>220</v>
       </c>
       <c r="X36">
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="Y36">
         <v>180</v>
@@ -3505,7 +3544,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -3550,13 +3589,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R37">
         <v>10</v>
       </c>
       <c r="T37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="V37">
         <v>-110</v>
@@ -3565,7 +3604,7 @@
         <v>110</v>
       </c>
       <c r="X37">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="Y37">
         <v>90</v>
@@ -3576,7 +3615,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -3621,13 +3660,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R38">
         <v>11</v>
       </c>
       <c r="T38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="V38">
         <v>-110</v>
@@ -3636,7 +3675,7 @@
         <v>110</v>
       </c>
       <c r="X38">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="Y38">
         <v>90</v>
@@ -3671,7 +3710,7 @@
         <v>-1</v>
       </c>
       <c r="J39" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K39" t="b">
         <v>1</v>
@@ -3692,10 +3731,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="T39" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.2">
@@ -3703,7 +3742,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -3748,10 +3787,22 @@
         <v>0</v>
       </c>
       <c r="Q40" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="T40" t="s">
-        <v>86</v>
+        <v>84</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>80000</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>80000</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
@@ -3759,7 +3810,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -3783,7 +3834,7 @@
         <v>-1</v>
       </c>
       <c r="J41" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
@@ -3804,13 +3855,25 @@
         <v>1</v>
       </c>
       <c r="Q41" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="R41">
         <v>0</v>
       </c>
       <c r="T41" t="s">
-        <v>86</v>
+        <v>84</v>
+      </c>
+      <c r="V41">
+        <v>-0.4</v>
+      </c>
+      <c r="W41">
+        <v>1.4</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
@@ -3818,7 +3881,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -3842,7 +3905,7 @@
         <v>-1</v>
       </c>
       <c r="J42" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
@@ -3863,13 +3926,25 @@
         <v>1</v>
       </c>
       <c r="Q42" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="R42">
         <v>1</v>
       </c>
       <c r="T42" t="s">
-        <v>86</v>
+        <v>84</v>
+      </c>
+      <c r="V42">
+        <v>-0.4</v>
+      </c>
+      <c r="W42">
+        <v>1.4</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.2">
@@ -3922,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R43">
         <v>0</v>
@@ -3993,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R44">
         <v>1</v>
@@ -4064,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R45">
         <v>2</v>
@@ -4090,7 +4165,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -4135,22 +4210,28 @@
         <v>0</v>
       </c>
       <c r="Q46" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="R46">
         <v>3</v>
       </c>
       <c r="S46" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="T46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="V46">
         <v>-1</v>
       </c>
       <c r="W46">
         <v>11</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.2">
@@ -4158,7 +4239,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -4182,7 +4263,7 @@
         <v>-1</v>
       </c>
       <c r="J47" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
@@ -4203,13 +4284,13 @@
         <v>1</v>
       </c>
       <c r="Q47" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="R47">
         <v>6</v>
       </c>
       <c r="T47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="V47">
         <v>-0.4</v>
@@ -4229,7 +4310,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -4253,7 +4334,7 @@
         <v>-1</v>
       </c>
       <c r="J48" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
@@ -4274,13 +4355,13 @@
         <v>1</v>
       </c>
       <c r="Q48" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="R48">
         <v>7</v>
       </c>
       <c r="T48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="V48">
         <v>-0.4</v>
@@ -4300,7 +4381,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -4324,7 +4405,7 @@
         <v>-1</v>
       </c>
       <c r="J49" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
@@ -4345,13 +4426,13 @@
         <v>1</v>
       </c>
       <c r="Q49" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="R49">
         <v>8</v>
       </c>
       <c r="T49" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="V49">
         <v>-0.4</v>
@@ -4371,7 +4452,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -4395,7 +4476,7 @@
         <v>-1</v>
       </c>
       <c r="J50" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
@@ -4416,13 +4497,13 @@
         <v>1</v>
       </c>
       <c r="Q50" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="R50">
         <v>9</v>
       </c>
       <c r="T50" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="V50">
         <v>-0.4</v>
@@ -4442,7 +4523,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -4466,7 +4547,7 @@
         <v>-1</v>
       </c>
       <c r="J51" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
@@ -4487,13 +4568,13 @@
         <v>1</v>
       </c>
       <c r="Q51" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="R51">
         <v>12</v>
       </c>
       <c r="T51" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="V51">
         <v>-0.4</v>
@@ -4513,7 +4594,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -4537,7 +4618,7 @@
         <v>-1</v>
       </c>
       <c r="J52" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
@@ -4558,13 +4639,13 @@
         <v>1</v>
       </c>
       <c r="Q52" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="R52">
         <v>13</v>
       </c>
       <c r="T52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="V52">
         <v>-0.4</v>
@@ -4584,7 +4665,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4608,7 +4689,7 @@
         <v>-1</v>
       </c>
       <c r="J53" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
@@ -4629,13 +4710,13 @@
         <v>1</v>
       </c>
       <c r="Q53" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="R53">
         <v>14</v>
       </c>
       <c r="T53" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="V53">
         <v>-0.4</v>
@@ -4655,7 +4736,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -4679,7 +4760,7 @@
         <v>-1</v>
       </c>
       <c r="J54" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
@@ -4700,13 +4781,13 @@
         <v>1</v>
       </c>
       <c r="Q54" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="R54">
         <v>15</v>
       </c>
       <c r="T54" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="V54">
         <v>-0.4</v>
@@ -4726,7 +4807,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -4750,7 +4831,7 @@
         <v>-1</v>
       </c>
       <c r="J55" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
@@ -4771,13 +4852,13 @@
         <v>0</v>
       </c>
       <c r="Q55" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="R55">
         <v>18</v>
       </c>
       <c r="T55" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="V55">
         <v>-0.4</v>
@@ -4797,7 +4878,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4821,7 +4902,7 @@
         <v>-1</v>
       </c>
       <c r="J56" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
@@ -4842,13 +4923,13 @@
         <v>0</v>
       </c>
       <c r="Q56" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="R56">
         <v>19</v>
       </c>
       <c r="T56" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="V56">
         <v>-0.4</v>
@@ -4868,7 +4949,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4892,7 +4973,7 @@
         <v>-1</v>
       </c>
       <c r="J57" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
@@ -4913,13 +4994,13 @@
         <v>0</v>
       </c>
       <c r="Q57" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="R57">
         <v>20</v>
       </c>
       <c r="T57" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="V57">
         <v>-0.4</v>
@@ -4939,7 +5020,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -4963,7 +5044,7 @@
         <v>-1</v>
       </c>
       <c r="J58" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
@@ -4984,13 +5065,13 @@
         <v>0</v>
       </c>
       <c r="Q58" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="R58">
         <v>21</v>
       </c>
       <c r="T58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="V58">
         <v>-0.4</v>
@@ -5010,7 +5091,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -5034,7 +5115,7 @@
         <v>-1</v>
       </c>
       <c r="J59" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
@@ -5055,13 +5136,13 @@
         <v>0</v>
       </c>
       <c r="Q59" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="R59">
         <v>24</v>
       </c>
       <c r="T59" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="V59">
         <v>-0.4</v>
@@ -5081,7 +5162,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -5105,7 +5186,7 @@
         <v>-1</v>
       </c>
       <c r="J60" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
@@ -5126,13 +5207,13 @@
         <v>0</v>
       </c>
       <c r="Q60" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="R60">
         <v>25</v>
       </c>
       <c r="T60" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="V60">
         <v>-0.4</v>
@@ -5152,7 +5233,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -5176,7 +5257,7 @@
         <v>-1</v>
       </c>
       <c r="J61" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
@@ -5197,13 +5278,13 @@
         <v>0</v>
       </c>
       <c r="Q61" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="R61">
         <v>26</v>
       </c>
       <c r="T61" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="V61">
         <v>-0.4</v>
@@ -5247,7 +5328,7 @@
         <v>-1</v>
       </c>
       <c r="J62" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
@@ -5268,13 +5349,13 @@
         <v>0</v>
       </c>
       <c r="Q62" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="R62">
         <v>27</v>
       </c>
       <c r="T62" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="V62">
         <v>-0.4</v>
@@ -5294,7 +5375,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -5339,13 +5420,13 @@
         <v>0</v>
       </c>
       <c r="Q63" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R63">
         <v>8</v>
       </c>
       <c r="T63" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="V63" s="2">
         <v>-5</v>
@@ -5410,13 +5491,13 @@
         <v>0</v>
       </c>
       <c r="Q64" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R64">
         <v>12</v>
       </c>
       <c r="T64" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="V64">
         <v>-10</v>
@@ -5436,7 +5517,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -5481,25 +5562,25 @@
         <v>0</v>
       </c>
       <c r="Q65" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R65">
         <v>13</v>
       </c>
       <c r="T65" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="V65">
-        <v>-1</v>
+        <v>-200</v>
       </c>
       <c r="W65">
-        <v>10000</v>
+        <v>4200</v>
       </c>
       <c r="X65">
         <v>0</v>
       </c>
       <c r="Y65">
-        <v>10000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.2">
@@ -5507,7 +5588,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>70</v>
+        <v>172</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -5552,25 +5633,25 @@
         <v>0</v>
       </c>
       <c r="Q66" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R66">
         <v>14</v>
       </c>
       <c r="T66" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="V66">
-        <v>-1</v>
+        <v>-40</v>
       </c>
       <c r="W66">
-        <v>1000</v>
+        <v>540</v>
       </c>
       <c r="X66">
         <v>0</v>
       </c>
       <c r="Y66">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.2">
@@ -5578,7 +5659,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -5623,13 +5704,13 @@
         <v>0</v>
       </c>
       <c r="Q67" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R67">
         <v>15</v>
       </c>
       <c r="T67" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.2">
@@ -5637,7 +5718,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -5682,10 +5763,10 @@
         <v>0</v>
       </c>
       <c r="Q68" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="T68" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.2">
@@ -5844,13 +5925,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7831BB-F7C3-7546-89C2-6E8E0330469B}">
-  <dimension ref="A1:Y19"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5872,64 +5953,64 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" t="s">
         <v>108</v>
-      </c>
-      <c r="H1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I1" t="s">
-        <v>110</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
       </c>
       <c r="K1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="R1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="S1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="V1" t="s">
+        <v>153</v>
+      </c>
+      <c r="W1" t="s">
+        <v>154</v>
+      </c>
+      <c r="X1" t="s">
         <v>155</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>156</v>
-      </c>
-      <c r="X1" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
@@ -5979,13 +6060,25 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="R2">
         <v>3</v>
       </c>
       <c r="T2" t="s">
-        <v>84</v>
+        <v>171</v>
+      </c>
+      <c r="V2">
+        <v>-10</v>
+      </c>
+      <c r="W2">
+        <v>380</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
@@ -6035,13 +6128,13 @@
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="R3">
         <v>4</v>
       </c>
       <c r="T3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -6049,7 +6142,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -6094,13 +6187,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="R4">
         <v>5</v>
       </c>
       <c r="T4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -6165,13 +6258,13 @@
         <v>-0.25</v>
       </c>
       <c r="Q5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="R5">
         <v>9</v>
       </c>
       <c r="T5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="U5">
         <v>1</v>
@@ -6180,7 +6273,7 @@
         <v>-0.1</v>
       </c>
       <c r="W5">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -6239,19 +6332,19 @@
         <v>-0.25</v>
       </c>
       <c r="Q6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="R6">
         <v>11</v>
       </c>
       <c r="T6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V6" s="2">
         <v>-0.1</v>
       </c>
       <c r="W6">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -6310,10 +6403,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="T7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V7">
         <v>-12</v>
@@ -6378,10 +6471,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="T8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V8">
         <v>-12</v>
@@ -6446,10 +6539,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="T9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V9">
         <v>-12</v>
@@ -6514,10 +6607,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="T10" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="V10">
+        <v>-1000</v>
+      </c>
+      <c r="W10">
+        <v>1000</v>
+      </c>
+      <c r="X10">
+        <v>-720</v>
+      </c>
+      <c r="Y10">
+        <v>720</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
@@ -6570,10 +6675,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="T11" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="V11">
+        <v>-1000</v>
+      </c>
+      <c r="W11">
+        <v>1000</v>
+      </c>
+      <c r="X11">
+        <v>-720</v>
+      </c>
+      <c r="Y11">
+        <v>720</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
@@ -6626,10 +6743,22 @@
         <v>0</v>
       </c>
       <c r="Q12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="T12" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="V12">
+        <v>-1000</v>
+      </c>
+      <c r="W12">
+        <v>1000</v>
+      </c>
+      <c r="X12">
+        <v>-720</v>
+      </c>
+      <c r="Y12">
+        <v>720</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
@@ -6637,7 +6766,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -6682,10 +6811,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="T13" t="s">
-        <v>86</v>
+        <v>84</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>70000</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>70000</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
@@ -6693,7 +6834,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -6717,7 +6858,7 @@
         <v>-1</v>
       </c>
       <c r="J14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
@@ -6738,7 +6879,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="s">
-        <v>160</v>
+        <v>158</v>
+      </c>
+      <c r="T14" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
@@ -6746,7 +6890,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -6758,7 +6902,7 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G15">
         <v>-1</v>
@@ -6770,13 +6914,13 @@
         <v>-1</v>
       </c>
       <c r="J15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M15" t="b">
         <v>1</v>
@@ -6791,10 +6935,22 @@
         <v>0</v>
       </c>
       <c r="Q15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="T15" t="s">
-        <v>87</v>
+        <v>51</v>
+      </c>
+      <c r="V15">
+        <v>-11</v>
+      </c>
+      <c r="W15">
+        <v>11</v>
+      </c>
+      <c r="X15">
+        <v>-9</v>
+      </c>
+      <c r="Y15">
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
@@ -6802,7 +6958,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -6826,7 +6982,7 @@
         <v>-1</v>
       </c>
       <c r="J16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
@@ -6847,10 +7003,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="T16" t="s">
-        <v>87</v>
+        <v>51</v>
+      </c>
+      <c r="V16">
+        <v>-11</v>
+      </c>
+      <c r="W16">
+        <v>11</v>
+      </c>
+      <c r="X16">
+        <v>-9</v>
+      </c>
+      <c r="Y16">
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
@@ -6858,7 +7026,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -6903,10 +7071,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="T17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
@@ -6914,7 +7082,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -6926,7 +7094,7 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G18">
         <v>-1</v>
@@ -6959,7 +7127,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="s">
-        <v>167</v>
+        <v>165</v>
+      </c>
+      <c r="T18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
@@ -6967,7 +7138,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -6979,7 +7150,7 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G19">
         <v>-1</v>
@@ -7012,7 +7183,66 @@
         <v>0</v>
       </c>
       <c r="Q19" t="s">
-        <v>167</v>
+        <v>165</v>
+      </c>
+      <c r="T19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>35</v>
+      </c>
+      <c r="G20">
+        <v>-1</v>
+      </c>
+      <c r="H20">
+        <v>-1</v>
+      </c>
+      <c r="I20">
+        <v>-1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>16</v>
+      </c>
+      <c r="O20" s="2">
+        <v>1</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>165</v>
+      </c>
+      <c r="T20" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/ql-async/config_tlm_2.xlsx
+++ b/ql-async/config_tlm_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/ql-async/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376CF214-4950-2143-A495-859D8F0E28FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CB66F8-9A55-964B-BD11-C8D43F09DAA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2280" yWindow="1520" windowWidth="28800" windowHeight="19140" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
   </bookViews>
@@ -48,45 +48,12 @@
     <t>sup com</t>
   </si>
   <si>
-    <t>a_x</t>
-  </si>
-  <si>
-    <t>a_y</t>
-  </si>
-  <si>
-    <t>a_z</t>
-  </si>
-  <si>
-    <t>omg_x</t>
-  </si>
-  <si>
-    <t>omg_y</t>
-  </si>
-  <si>
-    <t>omg_z</t>
-  </si>
-  <si>
-    <t>B_x</t>
-  </si>
-  <si>
-    <t>B_y</t>
-  </si>
-  <si>
-    <t>B_z</t>
-  </si>
-  <si>
     <t>sub com mod</t>
   </si>
   <si>
     <t>sub com res</t>
   </si>
   <si>
-    <t>Pc,rde</t>
-  </si>
-  <si>
-    <t>Pc,pde</t>
-  </si>
-  <si>
     <t>a_x,ci</t>
   </si>
   <si>
@@ -120,75 +87,6 @@
     <t>T</t>
   </si>
   <si>
-    <t>Ptf</t>
-  </si>
-  <si>
-    <t>Pto</t>
-  </si>
-  <si>
-    <t>Ptn</t>
-  </si>
-  <si>
-    <t>Prgf</t>
-  </si>
-  <si>
-    <t>Prgo</t>
-  </si>
-  <si>
-    <t>Prgn</t>
-  </si>
-  <si>
-    <t>Pplef1</t>
-  </si>
-  <si>
-    <t>Pplef2</t>
-  </si>
-  <si>
-    <t>Ppleo</t>
-  </si>
-  <si>
-    <t>Pthrde</t>
-  </si>
-  <si>
-    <t>Ttf</t>
-  </si>
-  <si>
-    <t>Tto</t>
-  </si>
-  <si>
-    <t>Ttn</t>
-  </si>
-  <si>
-    <t>Trgf</t>
-  </si>
-  <si>
-    <t>Trgo</t>
-  </si>
-  <si>
-    <t>Tcrde</t>
-  </si>
-  <si>
-    <t>Tthrde</t>
-  </si>
-  <si>
-    <t>Tcpde</t>
-  </si>
-  <si>
-    <t>Tcrio</t>
-  </si>
-  <si>
-    <t>Tmcu</t>
-  </si>
-  <si>
-    <t>AutoZero</t>
-  </si>
-  <si>
-    <t>CJC</t>
-  </si>
-  <si>
-    <t>V5</t>
-  </si>
-  <si>
     <t>V</t>
   </si>
   <si>
@@ -204,9 +102,6 @@
     <t>GSE day</t>
   </si>
   <si>
-    <t>GSE time</t>
-  </si>
-  <si>
     <t>p ana</t>
   </si>
   <si>
@@ -219,9 +114,6 @@
     <t>GSE Day</t>
   </si>
   <si>
-    <t>GSE Time</t>
-  </si>
-  <si>
     <t>gse day</t>
   </si>
   <si>
@@ -234,18 +126,6 @@
     <t>counter</t>
   </si>
   <si>
-    <t>V24 control</t>
-  </si>
-  <si>
-    <t>V24 valve</t>
-  </si>
-  <si>
-    <t>DES time</t>
-  </si>
-  <si>
-    <t>CPU load</t>
-  </si>
-  <si>
     <t>Error Code</t>
   </si>
   <si>
@@ -261,15 +141,6 @@
     <t>PDU inhibit 2</t>
   </si>
   <si>
-    <t>Roll</t>
-  </si>
-  <si>
-    <t>Pitch</t>
-  </si>
-  <si>
-    <t>Yaw</t>
-  </si>
-  <si>
     <t>w idx</t>
   </si>
   <si>
@@ -393,9 +264,6 @@
     <t>des time</t>
   </si>
   <si>
-    <t>RAM free space</t>
-  </si>
-  <si>
     <t>MB</t>
   </si>
   <si>
@@ -516,9 +384,6 @@
     <t>DES State</t>
   </si>
   <si>
-    <t>Tchassis</t>
-  </si>
-  <si>
     <t>data hd</t>
   </si>
   <si>
@@ -552,7 +417,142 @@
     <t>days</t>
   </si>
   <si>
-    <t xml:space="preserve">SSD occupation </t>
+    <t>GSE time, s</t>
+  </si>
+  <si>
+    <t>Ptf, MPa</t>
+  </si>
+  <si>
+    <t>Pto, MPa</t>
+  </si>
+  <si>
+    <t>Ptn, MPa</t>
+  </si>
+  <si>
+    <t>Prgf, MPa</t>
+  </si>
+  <si>
+    <t>Prgo, MPa</t>
+  </si>
+  <si>
+    <t>Prgn, MPa</t>
+  </si>
+  <si>
+    <t>Pplef1, MPa</t>
+  </si>
+  <si>
+    <t>Pplef2, MPa</t>
+  </si>
+  <si>
+    <t>Ppleo, MPa</t>
+  </si>
+  <si>
+    <t>Pthrde, MPa</t>
+  </si>
+  <si>
+    <t>AutoZero, uV</t>
+  </si>
+  <si>
+    <t>CJC, uV</t>
+  </si>
+  <si>
+    <t>Ttf, °C</t>
+  </si>
+  <si>
+    <t>Tto, °C</t>
+  </si>
+  <si>
+    <t>Ttn, °C</t>
+  </si>
+  <si>
+    <t>Trgf, °C</t>
+  </si>
+  <si>
+    <t>Trgo, °C</t>
+  </si>
+  <si>
+    <t>Tcrde, °C</t>
+  </si>
+  <si>
+    <t>Tthrde, °C</t>
+  </si>
+  <si>
+    <t>Tcpde, °C</t>
+  </si>
+  <si>
+    <t>Tcrio, °C</t>
+  </si>
+  <si>
+    <t>Tmcu, °C</t>
+  </si>
+  <si>
+    <t>a_x, m/s2</t>
+  </si>
+  <si>
+    <t>a_y m/s2</t>
+  </si>
+  <si>
+    <t>a_z m/s2</t>
+  </si>
+  <si>
+    <t>omg_x, deg/s</t>
+  </si>
+  <si>
+    <t>omg_y, deg/s</t>
+  </si>
+  <si>
+    <t>omg_z, deg/s</t>
+  </si>
+  <si>
+    <t>B_x, arb.</t>
+  </si>
+  <si>
+    <t>B_y, arb.</t>
+  </si>
+  <si>
+    <t>B_z, arb.</t>
+  </si>
+  <si>
+    <t>Roll, deg</t>
+  </si>
+  <si>
+    <t>Pitch, deg</t>
+  </si>
+  <si>
+    <t>Yaw, deg</t>
+  </si>
+  <si>
+    <t>DES time, s</t>
+  </si>
+  <si>
+    <t>V5, V</t>
+  </si>
+  <si>
+    <t>V24 cont., V</t>
+  </si>
+  <si>
+    <t>V24 valv., V</t>
+  </si>
+  <si>
+    <t>Tchassis, °C</t>
+  </si>
+  <si>
+    <t>CPU load, %</t>
+  </si>
+  <si>
+    <t>RAM free space, MB</t>
+  </si>
+  <si>
+    <t>SSD occupation, GB</t>
+  </si>
+  <si>
+    <t>GSE Time, s</t>
+  </si>
+  <si>
+    <t>Pc,rde, MPa</t>
+  </si>
+  <si>
+    <t>Pc,pde, MPa</t>
   </si>
 </sst>
 </file>
@@ -921,7 +921,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -937,73 +937,73 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="G1" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="H1" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="I1" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
       </c>
       <c r="K1" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="L1" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="M1" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="N1" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="O1" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="P1" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="Q1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" t="s">
         <v>113</v>
       </c>
-      <c r="R1" t="s">
-        <v>116</v>
-      </c>
-      <c r="S1" t="s">
-        <v>79</v>
-      </c>
-      <c r="T1" t="s">
-        <v>82</v>
-      </c>
-      <c r="U1" t="s">
-        <v>157</v>
-      </c>
       <c r="V1" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="W1" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="X1" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="Y1" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
@@ -1011,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1035,7 +1035,7 @@
         <v>-1</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
@@ -1053,16 +1053,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="T2" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="V2">
         <v>-10</v>
@@ -1082,7 +1082,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1106,7 +1106,7 @@
         <v>-1</v>
       </c>
       <c r="J3" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
@@ -1124,16 +1124,16 @@
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="R3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="T3" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -1141,7 +1141,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1165,7 +1165,7 @@
         <v>-1</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="K4" t="b">
         <v>1</v>
@@ -1186,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="R4">
         <v>2</v>
       </c>
       <c r="S4" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="T4" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1242,7 +1242,7 @@
         <v>-1</v>
       </c>
       <c r="J5" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="K5" t="b">
         <v>1</v>
@@ -1263,16 +1263,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="T5" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="U5">
         <v>2</v>
@@ -1295,7 +1295,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1319,7 +1319,7 @@
         <v>-1</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="K6" t="b">
         <v>1</v>
@@ -1340,16 +1340,16 @@
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="R6">
         <v>1</v>
       </c>
       <c r="S6" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="T6" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="V6" s="2">
         <v>-0.5</v>
@@ -1369,7 +1369,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1393,7 +1393,7 @@
         <v>-1</v>
       </c>
       <c r="J7" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
@@ -1414,16 +1414,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="R7">
         <v>2</v>
       </c>
       <c r="S7" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="T7" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="V7" s="2">
         <v>-0.5</v>
@@ -1443,7 +1443,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1467,7 +1467,7 @@
         <v>-1</v>
       </c>
       <c r="J8" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="K8" t="b">
         <v>1</v>
@@ -1488,16 +1488,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="R8">
         <v>3</v>
       </c>
       <c r="S8" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="T8" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="V8" s="2">
         <v>-0.1</v>
@@ -1517,7 +1517,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1541,7 +1541,7 @@
         <v>-1</v>
       </c>
       <c r="J9" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
@@ -1562,16 +1562,16 @@
         <v>0</v>
       </c>
       <c r="Q9" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="R9">
         <v>4</v>
       </c>
       <c r="S9" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="T9" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="V9" s="2">
         <v>-0.1</v>
@@ -1591,7 +1591,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1615,7 +1615,7 @@
         <v>-1</v>
       </c>
       <c r="J10" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
@@ -1636,16 +1636,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="R10">
         <v>5</v>
       </c>
       <c r="S10" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="T10" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="V10" s="2">
         <v>-0.1</v>
@@ -1665,7 +1665,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1689,7 +1689,7 @@
         <v>-1</v>
       </c>
       <c r="J11" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="K11" t="b">
         <v>1</v>
@@ -1710,16 +1710,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="R11">
         <v>6</v>
       </c>
       <c r="S11" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="T11" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="V11" s="2">
         <v>-0.1</v>
@@ -1739,7 +1739,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1763,7 +1763,7 @@
         <v>-1</v>
       </c>
       <c r="J12" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="K12" t="b">
         <v>1</v>
@@ -1784,16 +1784,16 @@
         <v>0</v>
       </c>
       <c r="Q12" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="R12">
         <v>7</v>
       </c>
       <c r="S12" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="T12" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="V12" s="2">
         <v>-0.1</v>
@@ -1813,7 +1813,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1837,7 +1837,7 @@
         <v>-1</v>
       </c>
       <c r="J13" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="K13" t="b">
         <v>1</v>
@@ -1858,16 +1858,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="R13">
         <v>8</v>
       </c>
       <c r="S13" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="T13" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="V13" s="2">
         <v>-0.1</v>
@@ -1887,7 +1887,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1911,7 +1911,7 @@
         <v>-1</v>
       </c>
       <c r="J14" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="K14" t="b">
         <v>1</v>
@@ -1932,16 +1932,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="R14">
         <v>10</v>
       </c>
       <c r="S14" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="T14" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="V14" s="2">
         <v>-0.1</v>
@@ -1961,7 +1961,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1985,7 +1985,7 @@
         <v>-1</v>
       </c>
       <c r="J15" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
@@ -2006,16 +2006,16 @@
         <v>0</v>
       </c>
       <c r="Q15" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="R15">
         <v>10</v>
       </c>
       <c r="S15" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="T15" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="V15" s="2">
         <v>-22</v>
@@ -2035,7 +2035,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2059,7 +2059,7 @@
         <v>-1</v>
       </c>
       <c r="J16" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
@@ -2080,16 +2080,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="R16">
         <v>11</v>
       </c>
       <c r="S16" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="T16" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="V16" s="2">
         <v>-2500</v>
@@ -2109,7 +2109,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2133,7 +2133,7 @@
         <v>-1</v>
       </c>
       <c r="J17" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
@@ -2154,16 +2154,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="T17" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="U17">
         <v>3</v>
@@ -2186,7 +2186,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2210,7 +2210,7 @@
         <v>-1</v>
       </c>
       <c r="J18" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
@@ -2231,16 +2231,16 @@
         <v>0</v>
       </c>
       <c r="Q18" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="R18">
         <v>1</v>
       </c>
       <c r="S18" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="T18" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="V18" s="2">
         <v>-5</v>
@@ -2260,7 +2260,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2284,7 +2284,7 @@
         <v>-1</v>
       </c>
       <c r="J19" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
@@ -2305,16 +2305,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="R19">
         <v>2</v>
       </c>
       <c r="S19" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="T19" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="V19" s="2">
         <v>-5</v>
@@ -2334,7 +2334,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2358,7 +2358,7 @@
         <v>-1</v>
       </c>
       <c r="J20" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
@@ -2379,13 +2379,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="R20">
         <v>3</v>
       </c>
       <c r="T20" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="V20" s="2">
         <v>-5</v>
@@ -2405,7 +2405,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2429,7 +2429,7 @@
         <v>-1</v>
       </c>
       <c r="J21" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
@@ -2450,13 +2450,13 @@
         <v>0</v>
       </c>
       <c r="Q21" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="R21">
         <v>4</v>
       </c>
       <c r="T21" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="V21" s="2">
         <v>-5</v>
@@ -2476,7 +2476,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2500,7 +2500,7 @@
         <v>-1</v>
       </c>
       <c r="J22" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="R22">
         <v>6</v>
       </c>
       <c r="T22" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="V22" s="2">
         <v>-20</v>
@@ -2547,7 +2547,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2571,7 +2571,7 @@
         <v>-1</v>
       </c>
       <c r="J23" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
@@ -2592,13 +2592,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="R23">
         <v>7</v>
       </c>
       <c r="T23" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="V23" s="2">
         <v>-20</v>
@@ -2618,7 +2618,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2642,7 +2642,7 @@
         <v>-1</v>
       </c>
       <c r="J24" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="K24" t="b">
         <v>0</v>
@@ -2663,13 +2663,13 @@
         <v>0</v>
       </c>
       <c r="Q24" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="R24">
         <v>8</v>
       </c>
       <c r="T24" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="V24" s="2">
         <v>-5</v>
@@ -2689,7 +2689,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2713,7 +2713,7 @@
         <v>-1</v>
       </c>
       <c r="J25" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="K25" t="b">
         <v>0</v>
@@ -2734,13 +2734,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="R25">
         <v>6</v>
       </c>
       <c r="T25" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="V25" s="2">
         <v>-5</v>
@@ -2760,7 +2760,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2784,7 +2784,7 @@
         <v>-1</v>
       </c>
       <c r="J26" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="K26" t="b">
         <v>0</v>
@@ -2805,13 +2805,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="R26">
         <v>7</v>
       </c>
       <c r="T26" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="V26" s="2">
         <v>-5</v>
@@ -2831,7 +2831,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2855,7 +2855,7 @@
         <v>-1</v>
       </c>
       <c r="J27" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="K27" t="b">
         <v>1</v>
@@ -2876,13 +2876,13 @@
         <v>0</v>
       </c>
       <c r="Q27" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="R27">
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="U27">
         <v>4</v>
@@ -2905,7 +2905,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>151</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2929,7 +2929,7 @@
         <v>-1</v>
       </c>
       <c r="J28" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="K28" t="b">
         <v>1</v>
@@ -2950,13 +2950,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="R28">
         <v>1</v>
       </c>
       <c r="T28" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="V28" s="2">
         <v>-13</v>
@@ -2976,7 +2976,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>152</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -3000,7 +3000,7 @@
         <v>-1</v>
       </c>
       <c r="J29" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="K29" t="b">
         <v>1</v>
@@ -3021,13 +3021,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="R29">
         <v>2</v>
       </c>
       <c r="T29" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="V29" s="2">
         <v>-13</v>
@@ -3047,7 +3047,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>153</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -3071,7 +3071,7 @@
         <v>-1</v>
       </c>
       <c r="J30" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K30" t="b">
         <v>1</v>
@@ -3092,13 +3092,13 @@
         <v>0</v>
       </c>
       <c r="Q30" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="R30">
         <v>3</v>
       </c>
       <c r="T30" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="V30" s="2">
         <v>-1200</v>
@@ -3118,7 +3118,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>154</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -3142,7 +3142,7 @@
         <v>-1</v>
       </c>
       <c r="J31" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K31" t="b">
         <v>1</v>
@@ -3163,13 +3163,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="R31">
         <v>4</v>
       </c>
       <c r="T31" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="V31" s="2">
         <v>-1200</v>
@@ -3189,7 +3189,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -3213,7 +3213,7 @@
         <v>-1</v>
       </c>
       <c r="J32" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K32" t="b">
         <v>1</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="R32">
         <v>5</v>
       </c>
       <c r="T32" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="V32" s="2">
         <v>-1200</v>
@@ -3260,7 +3260,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -3284,7 +3284,7 @@
         <v>-1</v>
       </c>
       <c r="J33" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="K33" t="b">
         <v>1</v>
@@ -3305,13 +3305,13 @@
         <v>0</v>
       </c>
       <c r="Q33" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="R33">
         <v>6</v>
       </c>
       <c r="T33" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="V33" s="2">
         <v>-11800</v>
@@ -3331,7 +3331,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -3355,7 +3355,7 @@
         <v>-1</v>
       </c>
       <c r="J34" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="K34" t="b">
         <v>1</v>
@@ -3376,13 +3376,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="R34">
         <v>7</v>
       </c>
       <c r="T34" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="V34" s="2">
         <v>-11800</v>
@@ -3402,7 +3402,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -3426,7 +3426,7 @@
         <v>-1</v>
       </c>
       <c r="J35" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="K35" t="b">
         <v>1</v>
@@ -3447,13 +3447,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="R35">
         <v>8</v>
       </c>
       <c r="T35" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="V35" s="2">
         <v>-11800</v>
@@ -3473,7 +3473,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -3497,7 +3497,7 @@
         <v>-1</v>
       </c>
       <c r="J36" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="K36" t="b">
         <v>1</v>
@@ -3518,13 +3518,13 @@
         <v>0</v>
       </c>
       <c r="Q36" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="R36">
         <v>9</v>
       </c>
       <c r="T36" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="V36">
         <v>-220</v>
@@ -3544,7 +3544,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -3568,7 +3568,7 @@
         <v>-1</v>
       </c>
       <c r="J37" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="K37" t="b">
         <v>1</v>
@@ -3589,13 +3589,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="R37">
         <v>10</v>
       </c>
       <c r="T37" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="V37">
         <v>-110</v>
@@ -3615,7 +3615,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -3639,7 +3639,7 @@
         <v>-1</v>
       </c>
       <c r="J38" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="K38" t="b">
         <v>1</v>
@@ -3660,13 +3660,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="R38">
         <v>11</v>
       </c>
       <c r="T38" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="V38">
         <v>-110</v>
@@ -3686,7 +3686,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>162</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -3710,7 +3710,7 @@
         <v>-1</v>
       </c>
       <c r="J39" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="K39" t="b">
         <v>1</v>
@@ -3731,10 +3731,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="T39" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.2">
@@ -3742,7 +3742,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -3766,7 +3766,7 @@
         <v>-1</v>
       </c>
       <c r="J40" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="K40" t="b">
         <v>1</v>
@@ -3787,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="T40" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="V40">
         <v>0</v>
@@ -3810,7 +3810,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -3834,7 +3834,7 @@
         <v>-1</v>
       </c>
       <c r="J41" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
@@ -3855,13 +3855,13 @@
         <v>1</v>
       </c>
       <c r="Q41" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="R41">
         <v>0</v>
       </c>
       <c r="T41" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="V41">
         <v>-0.4</v>
@@ -3881,7 +3881,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -3905,7 +3905,7 @@
         <v>-1</v>
       </c>
       <c r="J42" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
@@ -3926,13 +3926,13 @@
         <v>1</v>
       </c>
       <c r="Q42" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="R42">
         <v>1</v>
       </c>
       <c r="T42" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="V42">
         <v>-0.4</v>
@@ -3952,7 +3952,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -3976,7 +3976,7 @@
         <v>-1</v>
       </c>
       <c r="J43" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="K43" t="b">
         <v>1</v>
@@ -3997,13 +3997,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="R43">
         <v>0</v>
       </c>
       <c r="T43" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="V43">
         <v>-1</v>
@@ -4023,7 +4023,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>164</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -4047,7 +4047,7 @@
         <v>-1</v>
       </c>
       <c r="J44" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="K44" t="b">
         <v>1</v>
@@ -4068,13 +4068,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="R44">
         <v>1</v>
       </c>
       <c r="T44" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="V44">
         <v>-1</v>
@@ -4094,7 +4094,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>165</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -4118,7 +4118,7 @@
         <v>-1</v>
       </c>
       <c r="J45" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="K45" t="b">
         <v>1</v>
@@ -4139,13 +4139,13 @@
         <v>0</v>
       </c>
       <c r="Q45" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="R45">
         <v>2</v>
       </c>
       <c r="T45" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="V45">
         <v>-1</v>
@@ -4165,7 +4165,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -4189,7 +4189,7 @@
         <v>-1</v>
       </c>
       <c r="J46" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="K46" t="b">
         <v>1</v>
@@ -4210,16 +4210,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="R46">
         <v>3</v>
       </c>
       <c r="S46" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="T46" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="V46">
         <v>-1</v>
@@ -4239,7 +4239,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -4263,7 +4263,7 @@
         <v>-1</v>
       </c>
       <c r="J47" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
@@ -4284,13 +4284,13 @@
         <v>1</v>
       </c>
       <c r="Q47" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="R47">
         <v>6</v>
       </c>
       <c r="T47" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="V47">
         <v>-0.4</v>
@@ -4310,7 +4310,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -4334,7 +4334,7 @@
         <v>-1</v>
       </c>
       <c r="J48" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
@@ -4355,13 +4355,13 @@
         <v>1</v>
       </c>
       <c r="Q48" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="R48">
         <v>7</v>
       </c>
       <c r="T48" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="V48">
         <v>-0.4</v>
@@ -4381,7 +4381,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -4405,7 +4405,7 @@
         <v>-1</v>
       </c>
       <c r="J49" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
@@ -4426,13 +4426,13 @@
         <v>1</v>
       </c>
       <c r="Q49" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="R49">
         <v>8</v>
       </c>
       <c r="T49" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="V49">
         <v>-0.4</v>
@@ -4452,7 +4452,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -4476,7 +4476,7 @@
         <v>-1</v>
       </c>
       <c r="J50" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
@@ -4497,13 +4497,13 @@
         <v>1</v>
       </c>
       <c r="Q50" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="R50">
         <v>9</v>
       </c>
       <c r="T50" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="V50">
         <v>-0.4</v>
@@ -4523,7 +4523,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -4547,7 +4547,7 @@
         <v>-1</v>
       </c>
       <c r="J51" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
@@ -4568,13 +4568,13 @@
         <v>1</v>
       </c>
       <c r="Q51" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="R51">
         <v>12</v>
       </c>
       <c r="T51" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="V51">
         <v>-0.4</v>
@@ -4594,7 +4594,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -4618,7 +4618,7 @@
         <v>-1</v>
       </c>
       <c r="J52" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
@@ -4639,13 +4639,13 @@
         <v>1</v>
       </c>
       <c r="Q52" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="R52">
         <v>13</v>
       </c>
       <c r="T52" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="V52">
         <v>-0.4</v>
@@ -4665,7 +4665,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4689,7 +4689,7 @@
         <v>-1</v>
       </c>
       <c r="J53" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
@@ -4710,13 +4710,13 @@
         <v>1</v>
       </c>
       <c r="Q53" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="R53">
         <v>14</v>
       </c>
       <c r="T53" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="V53">
         <v>-0.4</v>
@@ -4736,7 +4736,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -4760,7 +4760,7 @@
         <v>-1</v>
       </c>
       <c r="J54" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
@@ -4781,13 +4781,13 @@
         <v>1</v>
       </c>
       <c r="Q54" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="R54">
         <v>15</v>
       </c>
       <c r="T54" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="V54">
         <v>-0.4</v>
@@ -4807,7 +4807,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -4831,7 +4831,7 @@
         <v>-1</v>
       </c>
       <c r="J55" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
@@ -4852,13 +4852,13 @@
         <v>0</v>
       </c>
       <c r="Q55" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="R55">
         <v>18</v>
       </c>
       <c r="T55" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="V55">
         <v>-0.4</v>
@@ -4878,7 +4878,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4902,7 +4902,7 @@
         <v>-1</v>
       </c>
       <c r="J56" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
@@ -4923,13 +4923,13 @@
         <v>0</v>
       </c>
       <c r="Q56" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="R56">
         <v>19</v>
       </c>
       <c r="T56" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="V56">
         <v>-0.4</v>
@@ -4949,7 +4949,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4973,7 +4973,7 @@
         <v>-1</v>
       </c>
       <c r="J57" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
@@ -4994,13 +4994,13 @@
         <v>0</v>
       </c>
       <c r="Q57" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="R57">
         <v>20</v>
       </c>
       <c r="T57" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="V57">
         <v>-0.4</v>
@@ -5020,7 +5020,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -5044,7 +5044,7 @@
         <v>-1</v>
       </c>
       <c r="J58" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
@@ -5065,13 +5065,13 @@
         <v>0</v>
       </c>
       <c r="Q58" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="R58">
         <v>21</v>
       </c>
       <c r="T58" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="V58">
         <v>-0.4</v>
@@ -5091,7 +5091,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -5115,7 +5115,7 @@
         <v>-1</v>
       </c>
       <c r="J59" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
@@ -5136,13 +5136,13 @@
         <v>0</v>
       </c>
       <c r="Q59" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="R59">
         <v>24</v>
       </c>
       <c r="T59" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="V59">
         <v>-0.4</v>
@@ -5162,7 +5162,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -5186,7 +5186,7 @@
         <v>-1</v>
       </c>
       <c r="J60" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
@@ -5207,13 +5207,13 @@
         <v>0</v>
       </c>
       <c r="Q60" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="R60">
         <v>25</v>
       </c>
       <c r="T60" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="V60">
         <v>-0.4</v>
@@ -5233,7 +5233,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -5257,7 +5257,7 @@
         <v>-1</v>
       </c>
       <c r="J61" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
@@ -5278,13 +5278,13 @@
         <v>0</v>
       </c>
       <c r="Q61" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="R61">
         <v>26</v>
       </c>
       <c r="T61" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="V61">
         <v>-0.4</v>
@@ -5304,7 +5304,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -5328,7 +5328,7 @@
         <v>-1</v>
       </c>
       <c r="J62" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
@@ -5349,13 +5349,13 @@
         <v>0</v>
       </c>
       <c r="Q62" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="R62">
         <v>27</v>
       </c>
       <c r="T62" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="V62">
         <v>-0.4</v>
@@ -5375,7 +5375,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -5399,7 +5399,7 @@
         <v>-1</v>
       </c>
       <c r="J63" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="K63" t="b">
         <v>1</v>
@@ -5420,13 +5420,13 @@
         <v>0</v>
       </c>
       <c r="Q63" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="R63">
         <v>8</v>
       </c>
       <c r="T63" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="V63" s="2">
         <v>-5</v>
@@ -5446,7 +5446,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>167</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -5470,7 +5470,7 @@
         <v>-1</v>
       </c>
       <c r="J64" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="K64" t="b">
         <v>1</v>
@@ -5491,13 +5491,13 @@
         <v>0</v>
       </c>
       <c r="Q64" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="R64">
         <v>12</v>
       </c>
       <c r="T64" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="V64">
         <v>-10</v>
@@ -5517,7 +5517,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -5541,7 +5541,7 @@
         <v>-1</v>
       </c>
       <c r="J65" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="K65" t="b">
         <v>1</v>
@@ -5562,13 +5562,13 @@
         <v>0</v>
       </c>
       <c r="Q65" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="R65">
         <v>13</v>
       </c>
       <c r="T65" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="V65">
         <v>-200</v>
@@ -5588,7 +5588,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -5612,7 +5612,7 @@
         <v>-1</v>
       </c>
       <c r="J66" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="K66" t="b">
         <v>1</v>
@@ -5633,13 +5633,13 @@
         <v>0</v>
       </c>
       <c r="Q66" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="R66">
         <v>14</v>
       </c>
       <c r="T66" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="V66">
         <v>-40</v>
@@ -5659,7 +5659,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -5683,7 +5683,7 @@
         <v>-1</v>
       </c>
       <c r="J67" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
@@ -5704,13 +5704,13 @@
         <v>0</v>
       </c>
       <c r="Q67" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="R67">
         <v>15</v>
       </c>
       <c r="T67" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.2">
@@ -5718,7 +5718,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -5742,7 +5742,7 @@
         <v>-1</v>
       </c>
       <c r="J68" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="K68" t="b">
         <v>1</v>
@@ -5763,10 +5763,10 @@
         <v>0</v>
       </c>
       <c r="Q68" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="T68" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.2">
@@ -5944,73 +5944,73 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="G1" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="H1" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="I1" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
       </c>
       <c r="K1" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="L1" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="M1" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="N1" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="O1" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="P1" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="Q1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" t="s">
         <v>113</v>
       </c>
-      <c r="R1" t="s">
-        <v>116</v>
-      </c>
-      <c r="S1" t="s">
-        <v>79</v>
-      </c>
-      <c r="T1" t="s">
-        <v>82</v>
-      </c>
-      <c r="U1" t="s">
-        <v>157</v>
-      </c>
       <c r="V1" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="W1" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="X1" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="Y1" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
@@ -6018,7 +6018,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -6042,7 +6042,7 @@
         <v>-1</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
@@ -6060,13 +6060,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="R2">
         <v>3</v>
       </c>
       <c r="T2" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="V2">
         <v>-10</v>
@@ -6086,7 +6086,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>170</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -6110,7 +6110,7 @@
         <v>-1</v>
       </c>
       <c r="J3" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
@@ -6128,13 +6128,13 @@
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="R3">
         <v>4</v>
       </c>
       <c r="T3" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -6142,7 +6142,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -6166,7 +6166,7 @@
         <v>-1</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="K4" t="b">
         <v>1</v>
@@ -6187,13 +6187,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="R4">
         <v>5</v>
       </c>
       <c r="T4" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -6213,7 +6213,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -6237,7 +6237,7 @@
         <v>-1</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
@@ -6258,13 +6258,13 @@
         <v>-0.25</v>
       </c>
       <c r="Q5" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="R5">
         <v>9</v>
       </c>
       <c r="T5" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="U5">
         <v>1</v>
@@ -6287,7 +6287,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -6311,7 +6311,7 @@
         <v>-1</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
@@ -6332,13 +6332,13 @@
         <v>-0.25</v>
       </c>
       <c r="Q6" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="R6">
         <v>11</v>
       </c>
       <c r="T6" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="V6" s="2">
         <v>-0.1</v>
@@ -6358,7 +6358,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -6382,7 +6382,7 @@
         <v>-1</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
@@ -6403,10 +6403,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="T7" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="V7">
         <v>-12</v>
@@ -6426,7 +6426,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -6450,7 +6450,7 @@
         <v>-1</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="K8" t="b">
         <v>1</v>
@@ -6471,10 +6471,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="T8" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="V8">
         <v>-12</v>
@@ -6494,7 +6494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -6518,7 +6518,7 @@
         <v>-1</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
@@ -6539,10 +6539,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="T9" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="V9">
         <v>-12</v>
@@ -6562,7 +6562,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -6586,7 +6586,7 @@
         <v>-1</v>
       </c>
       <c r="J10" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
@@ -6607,10 +6607,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="T10" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="V10">
         <v>-1000</v>
@@ -6630,7 +6630,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -6654,7 +6654,7 @@
         <v>-1</v>
       </c>
       <c r="J11" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="K11" t="b">
         <v>1</v>
@@ -6675,10 +6675,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="T11" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="V11">
         <v>-1000</v>
@@ -6698,7 +6698,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -6722,7 +6722,7 @@
         <v>-1</v>
       </c>
       <c r="J12" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="K12" t="b">
         <v>1</v>
@@ -6743,10 +6743,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="T12" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="V12">
         <v>-1000</v>
@@ -6766,7 +6766,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -6790,7 +6790,7 @@
         <v>-1</v>
       </c>
       <c r="J13" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="K13" t="b">
         <v>1</v>
@@ -6811,10 +6811,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="T13" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -6834,7 +6834,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -6858,7 +6858,7 @@
         <v>-1</v>
       </c>
       <c r="J14" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
@@ -6879,10 +6879,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="T14" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
@@ -6890,7 +6890,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -6914,7 +6914,7 @@
         <v>-1</v>
       </c>
       <c r="J15" t="s">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
@@ -6935,10 +6935,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="T15" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="V15">
         <v>-11</v>
@@ -6958,7 +6958,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -6982,7 +6982,7 @@
         <v>-1</v>
       </c>
       <c r="J16" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
@@ -7003,10 +7003,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="T16" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="V16">
         <v>-11</v>
@@ -7026,7 +7026,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -7050,7 +7050,7 @@
         <v>-1</v>
       </c>
       <c r="J17" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="K17" t="b">
         <v>1</v>
@@ -7071,10 +7071,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="T17" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
@@ -7082,7 +7082,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -7106,7 +7106,7 @@
         <v>-1</v>
       </c>
       <c r="J18" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="K18" t="b">
         <v>1</v>
@@ -7127,10 +7127,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="T18" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
@@ -7138,7 +7138,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -7162,7 +7162,7 @@
         <v>-1</v>
       </c>
       <c r="J19" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="K19" t="b">
         <v>1</v>
@@ -7183,10 +7183,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="T19" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
@@ -7194,7 +7194,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -7218,7 +7218,7 @@
         <v>-1</v>
       </c>
       <c r="J20" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="K20" t="b">
         <v>1</v>
@@ -7239,10 +7239,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="T20" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/ql-async/config_tlm_2.xlsx
+++ b/ql-async/config_tlm_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/ql-async/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CB66F8-9A55-964B-BD11-C8D43F09DAA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C5162C-77BF-0A43-B68B-45EB3A654F0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2280" yWindow="1520" windowWidth="28800" windowHeight="19140" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
   </bookViews>
@@ -921,7 +921,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/ql-async/config_tlm_2.xlsx
+++ b/ql-async/config_tlm_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/ql-async/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C5162C-77BF-0A43-B68B-45EB3A654F0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F487ABE-CBB6-4E48-9F9B-449170555AB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="1520" windowWidth="28800" windowHeight="19140" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
+    <workbookView xWindow="2280" yWindow="1520" windowWidth="28800" windowHeight="19140" activeTab="1" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
   </bookViews>
   <sheets>
     <sheet name="smt" sheetId="1" r:id="rId1"/>
@@ -408,9 +408,6 @@
     <t>W009</t>
   </si>
   <si>
-    <t>W035</t>
-  </si>
-  <si>
     <t>W013</t>
   </si>
   <si>
@@ -553,6 +550,9 @@
   </si>
   <si>
     <t>Pc,pde, MPa</t>
+  </si>
+  <si>
+    <t>W036</t>
   </si>
 </sst>
 </file>
@@ -917,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE05D0F0-18B2-A045-A8BA-808A6B30C776}">
   <dimension ref="A1:Y112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -1062,7 +1062,7 @@
         <v>102</v>
       </c>
       <c r="T2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="V2">
         <v>-10</v>
@@ -1082,7 +1082,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1218,7 +1218,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1295,7 +1295,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1369,7 +1369,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1443,7 +1443,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1517,7 +1517,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1591,7 +1591,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1665,7 +1665,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1739,7 +1739,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1813,7 +1813,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1887,7 +1887,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1961,7 +1961,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2035,7 +2035,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2109,7 +2109,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2186,7 +2186,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2260,7 +2260,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2334,7 +2334,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2405,7 +2405,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2476,7 +2476,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2547,7 +2547,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2618,7 +2618,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2689,7 +2689,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2760,7 +2760,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2831,7 +2831,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2905,7 +2905,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2976,7 +2976,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -3047,7 +3047,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -3118,7 +3118,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -3189,7 +3189,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -3260,7 +3260,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -3331,7 +3331,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -3402,7 +3402,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -3473,7 +3473,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -3544,7 +3544,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -3615,7 +3615,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -3686,7 +3686,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -3952,7 +3952,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -4023,7 +4023,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -4094,7 +4094,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -5375,7 +5375,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -5446,7 +5446,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -5517,7 +5517,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -5588,7 +5588,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -5927,11 +5927,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7831BB-F7C3-7546-89C2-6E8E0330469B}">
   <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6066,7 +6066,7 @@
         <v>3</v>
       </c>
       <c r="T2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="V2">
         <v>-10</v>
@@ -6086,7 +6086,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -6213,7 +6213,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -6287,7 +6287,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -7082,7 +7082,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -7194,7 +7194,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -7206,7 +7206,7 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G20">
         <v>-1</v>
@@ -7227,7 +7227,7 @@
         <v>1</v>
       </c>
       <c r="M20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20">
         <v>16</v>
